--- a/api/functions/Excel/template2.xlsx
+++ b/api/functions/Excel/template2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greenlandscapingmalmo-my.sharepoint.com/personal/andreas_lofkvist_glnet_se/Documents/Dokument/Code/Projects/API/api/functions/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{8A0625AA-F60C-40C6-A257-E02DE58499AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5757A455-778F-458A-8F00-0D7F54262AC5}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{8A0625AA-F60C-40C6-A257-E02DE58499AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568C0C45-6B5F-4DB6-9386-B3AD81ED2458}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>Trädspecialister</t>
   </si>
@@ -2058,263 +2058,227 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,109 +2286,145 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2441,6 +2441,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2767,11 +2771,11 @@
   <sheetPr codeName="Blad1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT5144"/>
+  <dimension ref="A1:AT177"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X130" sqref="X130"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T5105" sqref="D5105:T5114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2791,128 +2795,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="242" t="s">
+      <c r="A1" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
       <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="257" t="s">
+      <c r="C2" s="234"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="158"/>
-      <c r="AO2" s="158"/>
-      <c r="AP2" s="158"/>
-      <c r="AQ2" s="158"/>
-      <c r="AR2" s="158"/>
-      <c r="AS2" s="158"/>
-      <c r="AT2" s="159"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="286"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="234"/>
+      <c r="AC2" s="234"/>
+      <c r="AD2" s="234"/>
+      <c r="AE2" s="234"/>
+      <c r="AF2" s="234"/>
+      <c r="AG2" s="234"/>
+      <c r="AH2" s="234"/>
+      <c r="AI2" s="234"/>
+      <c r="AJ2" s="234"/>
+      <c r="AK2" s="234"/>
+      <c r="AL2" s="234"/>
+      <c r="AM2" s="234"/>
+      <c r="AN2" s="234"/>
+      <c r="AO2" s="234"/>
+      <c r="AP2" s="234"/>
+      <c r="AQ2" s="234"/>
+      <c r="AR2" s="234"/>
+      <c r="AS2" s="234"/>
+      <c r="AT2" s="287"/>
     </row>
     <row r="3" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="161"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="178"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="178"/>
+      <c r="AJ3" s="178"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="178"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="178"/>
+      <c r="AS3" s="178"/>
+      <c r="AT3" s="209"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -2923,69 +2927,69 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="60"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="260" t="s">
+      <c r="E4" s="273"/>
+      <c r="F4" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="175" t="s">
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="175" t="s">
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="270" t="s">
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="196"/>
+      <c r="Y4" s="196"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="226" t="s">
+      <c r="AB4" s="196"/>
+      <c r="AC4" s="196"/>
+      <c r="AD4" s="196"/>
+      <c r="AE4" s="196"/>
+      <c r="AF4" s="196"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="177"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
+      <c r="AK4" s="196"/>
+      <c r="AL4" s="196"/>
+      <c r="AM4" s="196"/>
+      <c r="AN4" s="197"/>
       <c r="AO4" s="60"/>
       <c r="AP4" s="60"/>
       <c r="AQ4" s="60"/>
       <c r="AR4" s="60"/>
       <c r="AS4" s="66"/>
-      <c r="AT4" s="234"/>
+      <c r="AT4" s="293"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="206" t="s">
+      <c r="B5" s="253"/>
+      <c r="C5" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="207"/>
-      <c r="E5" s="223"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="274"/>
       <c r="F5" s="61">
         <v>27</v>
       </c>
@@ -3096,14 +3100,14 @@
       <c r="AQ5" s="59"/>
       <c r="AR5" s="59"/>
       <c r="AS5" s="59"/>
-      <c r="AT5" s="235"/>
+      <c r="AT5" s="294"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A6" s="208"/>
-      <c r="B6" s="209"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="223"/>
+      <c r="A6" s="254"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="274"/>
       <c r="F6" s="32" t="s">
         <v>15</v>
       </c>
@@ -3224,15 +3228,15 @@
       <c r="AS6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AT6" s="235"/>
+      <c r="AT6" s="294"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A7" s="261"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="188" t="s">
+      <c r="A7" s="221"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="282" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="189"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="82"/>
       <c r="F7" s="83"/>
       <c r="G7" s="83"/>
@@ -3280,10 +3284,10 @@
       </c>
     </row>
     <row r="8" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="187"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="164"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="82"/>
       <c r="F8" s="85"/>
       <c r="G8" s="85"/>
@@ -3331,14 +3335,14 @@
       </c>
     </row>
     <row r="9" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="178" t="s">
+      <c r="B9" s="158"/>
+      <c r="C9" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="164"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="82"/>
       <c r="F9" s="91"/>
       <c r="G9" s="91"/>
@@ -3386,10 +3390,10 @@
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A10" s="187"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="215"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="83"/>
@@ -3437,10 +3441,10 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="164"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="82"/>
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
@@ -3488,10 +3492,10 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="164"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="82"/>
       <c r="F12" s="83"/>
       <c r="G12" s="83"/>
@@ -3539,9 +3543,9 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="166"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83">
@@ -3594,9 +3598,9 @@
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A14" s="163"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="166"/>
       <c r="E14" s="82"/>
       <c r="F14" s="95"/>
@@ -3645,10 +3649,10 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A15" s="187"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="164"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="82"/>
       <c r="F15" s="83"/>
       <c r="G15" s="83"/>
@@ -3696,12 +3700,12 @@
       </c>
     </row>
     <row r="16" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="164"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="82"/>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
@@ -3749,14 +3753,14 @@
       </c>
     </row>
     <row r="17" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="246" t="s">
+      <c r="B17" s="158"/>
+      <c r="C17" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="215"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="82"/>
       <c r="F17" s="96"/>
       <c r="G17" s="97"/>
@@ -3804,12 +3808,12 @@
       </c>
     </row>
     <row r="18" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="187"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="267" t="s">
+      <c r="A18" s="157"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="164"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="82"/>
       <c r="F18" s="84"/>
       <c r="G18" s="84"/>
@@ -3857,10 +3861,10 @@
       </c>
     </row>
     <row r="19" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="187"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="164"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="82"/>
       <c r="F19" s="84"/>
       <c r="G19" s="84"/>
@@ -3908,10 +3912,10 @@
       </c>
     </row>
     <row r="20" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="163"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="164"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="158"/>
       <c r="E20" s="82"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84"/>
@@ -3959,10 +3963,10 @@
       </c>
     </row>
     <row r="21" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="163"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="164"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="158"/>
       <c r="E21" s="82"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -4010,10 +4014,10 @@
       </c>
     </row>
     <row r="22" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="163"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="164"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="158"/>
       <c r="E22" s="82"/>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
@@ -4061,10 +4065,10 @@
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="187"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="164"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="82"/>
       <c r="F23" s="84"/>
       <c r="G23" s="84"/>
@@ -4112,10 +4116,10 @@
       </c>
     </row>
     <row r="24" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="167"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="279"/>
-      <c r="D24" s="215"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="82"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
@@ -4163,14 +4167,14 @@
       </c>
     </row>
     <row r="25" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="164"/>
-      <c r="C25" s="178" t="s">
+      <c r="B25" s="158"/>
+      <c r="C25" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="164"/>
+      <c r="D25" s="158"/>
       <c r="E25" s="82"/>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
@@ -4218,11 +4222,11 @@
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="280"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="166"/>
       <c r="E26" s="82"/>
       <c r="F26" s="104"/>
@@ -4268,10 +4272,10 @@
       <c r="AT26" s="69"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A27" s="163"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="164"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
       <c r="E27" s="82"/>
       <c r="F27" s="86"/>
       <c r="G27" s="86"/>
@@ -4319,10 +4323,10 @@
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A28" s="187"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="164"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="158"/>
       <c r="E28" s="82"/>
       <c r="F28" s="86"/>
       <c r="G28" s="86"/>
@@ -4370,10 +4374,10 @@
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A29" s="163"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="164"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
       <c r="E29" s="82"/>
       <c r="F29" s="86"/>
       <c r="G29" s="86"/>
@@ -4421,10 +4425,10 @@
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A30" s="163"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="164"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="158"/>
       <c r="E30" s="82"/>
       <c r="F30" s="86"/>
       <c r="G30" s="86"/>
@@ -4472,10 +4476,10 @@
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A31" s="163"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="272"/>
-      <c r="D31" s="215"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="164"/>
       <c r="E31" s="82"/>
       <c r="F31" s="86"/>
       <c r="G31" s="86"/>
@@ -4523,10 +4527,10 @@
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A32" s="187"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="164"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="158"/>
       <c r="E32" s="106"/>
       <c r="F32" s="86"/>
       <c r="G32" s="86"/>
@@ -4574,10 +4578,10 @@
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A33" s="187"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="164"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="158"/>
       <c r="E33" s="82"/>
       <c r="F33" s="86"/>
       <c r="G33" s="86"/>
@@ -4625,10 +4629,10 @@
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A34" s="187"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="164"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="158"/>
       <c r="E34" s="82"/>
       <c r="F34" s="86"/>
       <c r="G34" s="86"/>
@@ -4676,10 +4680,10 @@
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A35" s="163"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="164"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="158"/>
       <c r="E35" s="82"/>
       <c r="F35" s="86"/>
       <c r="G35" s="86"/>
@@ -4727,10 +4731,10 @@
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="187"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="164"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="158"/>
       <c r="E36" s="82"/>
       <c r="F36" s="86"/>
       <c r="G36" s="86"/>
@@ -4778,14 +4782,14 @@
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A37" s="174" t="s">
+      <c r="A37" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="164"/>
-      <c r="C37" s="178" t="s">
+      <c r="B37" s="158"/>
+      <c r="C37" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="164"/>
+      <c r="D37" s="158"/>
       <c r="E37" s="82"/>
       <c r="F37" s="108"/>
       <c r="G37" s="109"/>
@@ -4830,10 +4834,10 @@
       <c r="AT37" s="70"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A38" s="163"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="164"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
       <c r="E38" s="82"/>
       <c r="F38" s="113"/>
       <c r="G38" s="113"/>
@@ -4881,10 +4885,10 @@
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A39" s="187"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="164"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
       <c r="E39" s="82"/>
       <c r="F39" s="86"/>
       <c r="G39" s="86"/>
@@ -4932,10 +4936,10 @@
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A40" s="163"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="164"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="158"/>
       <c r="E40" s="82"/>
       <c r="F40" s="86"/>
       <c r="G40" s="86"/>
@@ -4983,10 +4987,10 @@
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A41" s="163"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="164"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="158"/>
       <c r="E41" s="82"/>
       <c r="F41" s="86"/>
       <c r="G41" s="86"/>
@@ -5034,10 +5038,10 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A42" s="187"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="164"/>
+      <c r="A42" s="157"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="158"/>
       <c r="E42" s="82"/>
       <c r="F42" s="86"/>
       <c r="G42" s="86"/>
@@ -5085,10 +5089,10 @@
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A43" s="190"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="164"/>
+      <c r="A43" s="283"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="158"/>
       <c r="E43" s="82"/>
       <c r="F43" s="85"/>
       <c r="G43" s="85"/>
@@ -5136,10 +5140,10 @@
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A44" s="163"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="164"/>
+      <c r="A44" s="159"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="158"/>
       <c r="E44" s="82"/>
       <c r="F44" s="85"/>
       <c r="G44" s="85"/>
@@ -5187,10 +5191,10 @@
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A45" s="167"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="187"/>
-      <c r="D45" s="164"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="158"/>
       <c r="E45" s="82"/>
       <c r="F45" s="85"/>
       <c r="G45" s="85"/>
@@ -5238,10 +5242,10 @@
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A46" s="167"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="164"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="158"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="158"/>
       <c r="E46" s="82"/>
       <c r="F46" s="85"/>
       <c r="G46" s="85"/>
@@ -5289,10 +5293,10 @@
       </c>
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="167"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="164"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="158"/>
       <c r="E47" s="82"/>
       <c r="F47" s="85"/>
       <c r="G47" s="85"/>
@@ -5340,14 +5344,14 @@
       </c>
     </row>
     <row r="48" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="174" t="s">
+      <c r="A48" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="251" t="s">
+      <c r="B48" s="158"/>
+      <c r="C48" s="250" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="215"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="82"/>
       <c r="F48" s="97"/>
       <c r="G48" s="97"/>
@@ -5395,12 +5399,12 @@
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A49" s="163"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="276" t="s">
+      <c r="A49" s="159"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="215"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="82"/>
       <c r="F49" s="120"/>
       <c r="G49" s="120"/>
@@ -5448,10 +5452,10 @@
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A50" s="187"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="214"/>
-      <c r="D50" s="215"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="82"/>
       <c r="F50" s="122"/>
       <c r="G50" s="122"/>
@@ -5499,10 +5503,10 @@
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A51" s="163"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="214"/>
-      <c r="D51" s="215"/>
+      <c r="A51" s="159"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="82"/>
       <c r="F51" s="84"/>
       <c r="G51" s="84"/>
@@ -5550,10 +5554,10 @@
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A52" s="163"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="214"/>
-      <c r="D52" s="215"/>
+      <c r="A52" s="159"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="82"/>
       <c r="F52" s="84"/>
       <c r="G52" s="84"/>
@@ -5601,10 +5605,10 @@
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A53" s="163"/>
-      <c r="B53" s="164"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="164"/>
+      <c r="A53" s="159"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="158"/>
       <c r="E53" s="82"/>
       <c r="F53" s="84"/>
       <c r="G53" s="84"/>
@@ -5652,10 +5656,10 @@
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A54" s="187"/>
-      <c r="B54" s="164"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="164"/>
+      <c r="A54" s="157"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="158"/>
       <c r="E54" s="82"/>
       <c r="F54" s="84"/>
       <c r="G54" s="84"/>
@@ -5703,10 +5707,10 @@
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A55" s="187"/>
-      <c r="B55" s="164"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="164"/>
+      <c r="A55" s="157"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="158"/>
       <c r="E55" s="82"/>
       <c r="F55" s="84"/>
       <c r="G55" s="84"/>
@@ -5754,9 +5758,9 @@
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A56" s="187"/>
-      <c r="B56" s="164"/>
-      <c r="C56" s="195"/>
+      <c r="A56" s="157"/>
+      <c r="B56" s="158"/>
+      <c r="C56" s="242"/>
       <c r="D56" s="166"/>
       <c r="E56" s="82"/>
       <c r="F56" s="123"/>
@@ -5805,9 +5809,9 @@
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A57" s="163"/>
-      <c r="B57" s="164"/>
-      <c r="C57" s="195"/>
+      <c r="A57" s="159"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="242"/>
       <c r="D57" s="166"/>
       <c r="E57" s="82"/>
       <c r="F57" s="84"/>
@@ -5856,9 +5860,9 @@
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A58" s="187"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="195"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="242"/>
       <c r="D58" s="166"/>
       <c r="E58" s="82"/>
       <c r="F58" s="84"/>
@@ -5907,9 +5911,9 @@
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A59" s="163"/>
-      <c r="B59" s="164"/>
-      <c r="C59" s="195"/>
+      <c r="A59" s="159"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="242"/>
       <c r="D59" s="166"/>
       <c r="E59" s="82"/>
       <c r="F59" s="84"/>
@@ -5958,10 +5962,10 @@
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A60" s="187"/>
-      <c r="B60" s="164"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="164"/>
+      <c r="A60" s="157"/>
+      <c r="B60" s="158"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="158"/>
       <c r="E60" s="82"/>
       <c r="F60" s="84"/>
       <c r="G60" s="84"/>
@@ -6009,10 +6013,10 @@
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A61" s="187"/>
-      <c r="B61" s="164"/>
-      <c r="C61" s="193"/>
-      <c r="D61" s="164"/>
+      <c r="A61" s="157"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="158"/>
       <c r="E61" s="82"/>
       <c r="F61" s="123"/>
       <c r="G61" s="123"/>
@@ -6060,10 +6064,10 @@
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A62" s="229"/>
-      <c r="B62" s="164"/>
-      <c r="C62" s="193"/>
-      <c r="D62" s="164"/>
+      <c r="A62" s="193"/>
+      <c r="B62" s="158"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="158"/>
       <c r="E62" s="82"/>
       <c r="F62" s="123"/>
       <c r="G62" s="123"/>
@@ -6111,10 +6115,10 @@
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A63" s="229"/>
-      <c r="B63" s="164"/>
-      <c r="C63" s="193"/>
-      <c r="D63" s="164"/>
+      <c r="A63" s="193"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="158"/>
       <c r="E63" s="82"/>
       <c r="F63" s="123"/>
       <c r="G63" s="123"/>
@@ -6162,10 +6166,10 @@
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A64" s="187"/>
-      <c r="B64" s="164"/>
-      <c r="C64" s="193"/>
-      <c r="D64" s="164"/>
+      <c r="A64" s="157"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="158"/>
       <c r="E64" s="82"/>
       <c r="F64" s="123"/>
       <c r="G64" s="123"/>
@@ -6213,10 +6217,10 @@
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A65" s="268"/>
-      <c r="B65" s="164"/>
-      <c r="C65" s="193"/>
-      <c r="D65" s="164"/>
+      <c r="A65" s="216"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="176"/>
+      <c r="D65" s="158"/>
       <c r="E65" s="82"/>
       <c r="F65" s="123"/>
       <c r="G65" s="123"/>
@@ -6264,10 +6268,10 @@
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A66" s="220"/>
-      <c r="B66" s="164"/>
-      <c r="C66" s="193"/>
-      <c r="D66" s="164"/>
+      <c r="A66" s="272"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="176"/>
+      <c r="D66" s="158"/>
       <c r="E66" s="82"/>
       <c r="F66" s="123"/>
       <c r="G66" s="123"/>
@@ -6315,10 +6319,10 @@
       </c>
     </row>
     <row r="67" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="216"/>
-      <c r="B67" s="204"/>
-      <c r="C67" s="203"/>
-      <c r="D67" s="204"/>
+      <c r="A67" s="271"/>
+      <c r="B67" s="230"/>
+      <c r="C67" s="284"/>
+      <c r="D67" s="230"/>
       <c r="E67" s="125"/>
       <c r="F67" s="126"/>
       <c r="G67" s="126"/>
@@ -6366,14 +6370,14 @@
       </c>
     </row>
     <row r="68" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="174" t="s">
+      <c r="A68" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="164"/>
-      <c r="C68" s="178" t="s">
+      <c r="B68" s="158"/>
+      <c r="C68" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="164"/>
+      <c r="D68" s="158"/>
       <c r="E68" s="82"/>
       <c r="F68" s="101"/>
       <c r="G68" s="101"/>
@@ -6421,10 +6425,10 @@
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A69" s="187"/>
-      <c r="B69" s="164"/>
-      <c r="C69" s="205"/>
-      <c r="D69" s="164"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="285"/>
+      <c r="D69" s="158"/>
       <c r="E69" s="82"/>
       <c r="F69" s="85"/>
       <c r="G69" s="85"/>
@@ -6484,10 +6488,10 @@
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A70" s="230"/>
-      <c r="B70" s="164"/>
-      <c r="C70" s="185"/>
-      <c r="D70" s="164"/>
+      <c r="A70" s="219"/>
+      <c r="B70" s="158"/>
+      <c r="C70" s="281"/>
+      <c r="D70" s="158"/>
       <c r="E70" s="82"/>
       <c r="F70" s="85"/>
       <c r="G70" s="85"/>
@@ -6535,10 +6539,10 @@
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A71" s="202"/>
-      <c r="B71" s="164"/>
-      <c r="C71" s="187"/>
-      <c r="D71" s="164"/>
+      <c r="A71" s="222"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="158"/>
       <c r="E71" s="82"/>
       <c r="F71" s="85"/>
       <c r="G71" s="85"/>
@@ -6586,10 +6590,10 @@
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A72" s="202"/>
-      <c r="B72" s="164"/>
-      <c r="C72" s="187"/>
-      <c r="D72" s="164"/>
+      <c r="A72" s="222"/>
+      <c r="B72" s="158"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="158"/>
       <c r="E72" s="82"/>
       <c r="F72" s="85"/>
       <c r="G72" s="85"/>
@@ -6637,10 +6641,10 @@
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A73" s="202"/>
-      <c r="B73" s="164"/>
-      <c r="C73" s="187"/>
-      <c r="D73" s="164"/>
+      <c r="A73" s="222"/>
+      <c r="B73" s="158"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="158"/>
       <c r="E73" s="82"/>
       <c r="F73" s="85"/>
       <c r="G73" s="85"/>
@@ -6688,10 +6692,10 @@
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A74" s="202"/>
-      <c r="B74" s="164"/>
-      <c r="C74" s="187"/>
-      <c r="D74" s="164"/>
+      <c r="A74" s="222"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="158"/>
       <c r="E74" s="82"/>
       <c r="F74" s="85"/>
       <c r="G74" s="85"/>
@@ -6739,10 +6743,10 @@
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A75" s="202"/>
-      <c r="B75" s="164"/>
-      <c r="C75" s="187"/>
-      <c r="D75" s="164"/>
+      <c r="A75" s="222"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="158"/>
       <c r="E75" s="82"/>
       <c r="F75" s="85"/>
       <c r="G75" s="85"/>
@@ -6790,10 +6794,10 @@
       </c>
     </row>
     <row r="76" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="187"/>
-      <c r="B76" s="164"/>
-      <c r="C76" s="263"/>
-      <c r="D76" s="164"/>
+      <c r="A76" s="157"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="224"/>
+      <c r="D76" s="158"/>
       <c r="E76" s="82"/>
       <c r="F76" s="127"/>
       <c r="G76" s="127"/>
@@ -6841,14 +6845,14 @@
       </c>
     </row>
     <row r="77" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="174" t="s">
+      <c r="A77" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="164"/>
-      <c r="C77" s="265" t="s">
+      <c r="B77" s="158"/>
+      <c r="C77" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="204"/>
+      <c r="D77" s="230"/>
       <c r="E77" s="82"/>
       <c r="F77" s="129"/>
       <c r="G77" s="129"/>
@@ -6896,10 +6900,10 @@
       </c>
     </row>
     <row r="78" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="237"/>
-      <c r="B78" s="238"/>
-      <c r="C78" s="168"/>
-      <c r="D78" s="169"/>
+      <c r="A78" s="214"/>
+      <c r="B78" s="215"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="161"/>
       <c r="E78" s="134"/>
       <c r="F78" s="85"/>
       <c r="G78" s="85"/>
@@ -6951,10 +6955,10 @@
       </c>
     </row>
     <row r="79" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="237"/>
-      <c r="B79" s="238"/>
-      <c r="C79" s="168"/>
-      <c r="D79" s="169"/>
+      <c r="A79" s="214"/>
+      <c r="B79" s="215"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="161"/>
       <c r="E79" s="134"/>
       <c r="F79" s="85"/>
       <c r="G79" s="85"/>
@@ -7004,10 +7008,10 @@
       </c>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A80" s="187"/>
-      <c r="B80" s="164"/>
-      <c r="C80" s="269"/>
-      <c r="D80" s="189"/>
+      <c r="A80" s="157"/>
+      <c r="B80" s="158"/>
+      <c r="C80" s="217"/>
+      <c r="D80" s="212"/>
       <c r="E80" s="82"/>
       <c r="F80" s="85"/>
       <c r="G80" s="85"/>
@@ -7055,10 +7059,10 @@
       </c>
     </row>
     <row r="81" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="187"/>
-      <c r="B81" s="164"/>
-      <c r="C81" s="187"/>
-      <c r="D81" s="164"/>
+      <c r="A81" s="157"/>
+      <c r="B81" s="158"/>
+      <c r="C81" s="157"/>
+      <c r="D81" s="158"/>
       <c r="E81" s="82"/>
       <c r="F81" s="85"/>
       <c r="G81" s="85"/>
@@ -7106,14 +7110,14 @@
       </c>
     </row>
     <row r="82" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="174" t="s">
+      <c r="A82" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="164"/>
-      <c r="C82" s="194" t="s">
+      <c r="B82" s="158"/>
+      <c r="C82" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="158"/>
       <c r="E82" s="82"/>
       <c r="F82" s="130"/>
       <c r="G82" s="130"/>
@@ -7161,10 +7165,10 @@
       </c>
     </row>
     <row r="83" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="241"/>
-      <c r="B83" s="164"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="215"/>
+      <c r="A83" s="167"/>
+      <c r="B83" s="158"/>
+      <c r="C83" s="266"/>
+      <c r="D83" s="164"/>
       <c r="E83" s="136"/>
       <c r="F83" s="137"/>
       <c r="G83" s="138"/>
@@ -7212,10 +7216,10 @@
       </c>
     </row>
     <row r="84" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="241"/>
-      <c r="B84" s="164"/>
-      <c r="C84" s="233"/>
-      <c r="D84" s="215"/>
+      <c r="A84" s="167"/>
+      <c r="B84" s="158"/>
+      <c r="C84" s="266"/>
+      <c r="D84" s="164"/>
       <c r="E84" s="136"/>
       <c r="F84" s="140"/>
       <c r="G84" s="141"/>
@@ -7263,12 +7267,12 @@
       </c>
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A85" s="186"/>
-      <c r="B85" s="164"/>
-      <c r="C85" s="231" t="s">
+      <c r="A85" s="239"/>
+      <c r="B85" s="158"/>
+      <c r="C85" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="164"/>
+      <c r="D85" s="158"/>
       <c r="E85" s="82"/>
       <c r="F85" s="85"/>
       <c r="G85" s="85"/>
@@ -7316,10 +7320,10 @@
       </c>
     </row>
     <row r="86" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="187"/>
-      <c r="B86" s="164"/>
-      <c r="C86" s="187"/>
-      <c r="D86" s="164"/>
+      <c r="A86" s="157"/>
+      <c r="B86" s="158"/>
+      <c r="C86" s="157"/>
+      <c r="D86" s="158"/>
       <c r="E86" s="82"/>
       <c r="F86" s="143"/>
       <c r="G86" s="143"/>
@@ -7367,14 +7371,14 @@
       </c>
     </row>
     <row r="87" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="174" t="s">
+      <c r="A87" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="164"/>
-      <c r="C87" s="194" t="s">
+      <c r="B87" s="158"/>
+      <c r="C87" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="164"/>
+      <c r="D87" s="158"/>
       <c r="E87" s="82"/>
       <c r="F87" s="129"/>
       <c r="G87" s="129"/>
@@ -7422,12 +7426,12 @@
       </c>
     </row>
     <row r="88" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="241"/>
-      <c r="B88" s="164"/>
-      <c r="C88" s="231" t="s">
+      <c r="A88" s="167"/>
+      <c r="B88" s="158"/>
+      <c r="C88" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="164"/>
+      <c r="D88" s="158"/>
       <c r="E88" s="136"/>
       <c r="F88" s="137"/>
       <c r="G88" s="138"/>
@@ -7475,8 +7479,8 @@
       </c>
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A89" s="187"/>
-      <c r="B89" s="164"/>
+      <c r="A89" s="157"/>
+      <c r="B89" s="158"/>
       <c r="C89" s="81"/>
       <c r="D89" s="81"/>
       <c r="E89" s="82"/>
@@ -7526,10 +7530,10 @@
       </c>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A90" s="187"/>
-      <c r="B90" s="164"/>
-      <c r="C90" s="187"/>
-      <c r="D90" s="164"/>
+      <c r="A90" s="157"/>
+      <c r="B90" s="158"/>
+      <c r="C90" s="157"/>
+      <c r="D90" s="158"/>
       <c r="E90" s="82"/>
       <c r="F90" s="85"/>
       <c r="G90" s="85"/>
@@ -7577,10 +7581,10 @@
       </c>
     </row>
     <row r="91" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="187"/>
-      <c r="B91" s="164"/>
-      <c r="C91" s="187"/>
-      <c r="D91" s="164"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="158"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="158"/>
       <c r="E91" s="82"/>
       <c r="F91" s="127"/>
       <c r="G91" s="127"/>
@@ -7628,14 +7632,14 @@
       </c>
     </row>
     <row r="92" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="174" t="s">
+      <c r="A92" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="164"/>
-      <c r="C92" s="247" t="s">
+      <c r="B92" s="158"/>
+      <c r="C92" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="248"/>
+      <c r="D92" s="247"/>
       <c r="E92" s="82"/>
       <c r="F92" s="145"/>
       <c r="G92" s="145"/>
@@ -7683,10 +7687,10 @@
       </c>
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A93" s="187"/>
-      <c r="B93" s="164"/>
-      <c r="C93" s="249"/>
-      <c r="D93" s="250"/>
+      <c r="A93" s="157"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="248"/>
+      <c r="D93" s="249"/>
       <c r="E93" s="82"/>
       <c r="F93" s="85"/>
       <c r="G93" s="85"/>
@@ -7736,10 +7740,10 @@
       </c>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A94" s="230"/>
-      <c r="B94" s="164"/>
-      <c r="C94" s="219"/>
-      <c r="D94" s="215"/>
+      <c r="A94" s="219"/>
+      <c r="B94" s="158"/>
+      <c r="C94" s="199"/>
+      <c r="D94" s="164"/>
       <c r="E94" s="82"/>
       <c r="F94" s="85"/>
       <c r="G94" s="85"/>
@@ -7787,10 +7791,10 @@
       </c>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A95" s="187"/>
-      <c r="B95" s="164"/>
-      <c r="C95" s="219"/>
-      <c r="D95" s="215"/>
+      <c r="A95" s="157"/>
+      <c r="B95" s="158"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="164"/>
       <c r="E95" s="82"/>
       <c r="F95" s="85"/>
       <c r="G95" s="85"/>
@@ -7838,10 +7842,10 @@
       </c>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A96" s="187"/>
-      <c r="B96" s="164"/>
-      <c r="C96" s="219"/>
-      <c r="D96" s="215"/>
+      <c r="A96" s="157"/>
+      <c r="B96" s="158"/>
+      <c r="C96" s="199"/>
+      <c r="D96" s="164"/>
       <c r="E96" s="82"/>
       <c r="F96" s="85"/>
       <c r="G96" s="85"/>
@@ -7889,10 +7893,10 @@
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A97" s="187"/>
-      <c r="B97" s="164"/>
-      <c r="C97" s="219"/>
-      <c r="D97" s="215"/>
+      <c r="A97" s="157"/>
+      <c r="B97" s="158"/>
+      <c r="C97" s="199"/>
+      <c r="D97" s="164"/>
       <c r="E97" s="82"/>
       <c r="F97" s="85"/>
       <c r="G97" s="85"/>
@@ -7940,10 +7944,10 @@
       </c>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A98" s="187"/>
-      <c r="B98" s="164"/>
-      <c r="C98" s="219"/>
-      <c r="D98" s="215"/>
+      <c r="A98" s="157"/>
+      <c r="B98" s="158"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="164"/>
       <c r="E98" s="82"/>
       <c r="F98" s="85"/>
       <c r="G98" s="85"/>
@@ -7991,10 +7995,10 @@
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A99" s="230"/>
-      <c r="B99" s="164"/>
-      <c r="C99" s="219"/>
-      <c r="D99" s="215"/>
+      <c r="A99" s="219"/>
+      <c r="B99" s="158"/>
+      <c r="C99" s="199"/>
+      <c r="D99" s="164"/>
       <c r="E99" s="82"/>
       <c r="F99" s="85"/>
       <c r="G99" s="85"/>
@@ -8042,10 +8046,10 @@
       </c>
     </row>
     <row r="100" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A100" s="264"/>
-      <c r="B100" s="236"/>
-      <c r="C100" s="241"/>
-      <c r="D100" s="164"/>
+      <c r="A100" s="225"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="167"/>
+      <c r="D100" s="158"/>
       <c r="E100" s="82"/>
       <c r="F100" s="85"/>
       <c r="G100" s="85"/>
@@ -8093,10 +8097,10 @@
       </c>
     </row>
     <row r="101" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="262"/>
-      <c r="B101" s="189"/>
-      <c r="C101" s="187"/>
-      <c r="D101" s="164"/>
+      <c r="A101" s="223"/>
+      <c r="B101" s="212"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="158"/>
       <c r="E101" s="82"/>
       <c r="F101" s="127"/>
       <c r="G101" s="127"/>
@@ -8144,14 +8148,14 @@
       </c>
     </row>
     <row r="102" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="174" t="s">
+      <c r="A102" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="164"/>
-      <c r="C102" s="194" t="s">
+      <c r="B102" s="158"/>
+      <c r="C102" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="164"/>
+      <c r="D102" s="158"/>
       <c r="E102" s="82"/>
       <c r="F102" s="101"/>
       <c r="G102" s="101"/>
@@ -8199,12 +8203,12 @@
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A103" s="210"/>
-      <c r="B103" s="164"/>
-      <c r="C103" s="245" t="s">
+      <c r="A103" s="198"/>
+      <c r="B103" s="158"/>
+      <c r="C103" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="D103" s="164"/>
+      <c r="D103" s="158"/>
       <c r="E103" s="82"/>
       <c r="F103" s="85"/>
       <c r="G103" s="85"/>
@@ -8256,10 +8260,10 @@
       </c>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A104" s="210"/>
-      <c r="B104" s="164"/>
-      <c r="C104" s="217"/>
-      <c r="D104" s="215"/>
+      <c r="A104" s="198"/>
+      <c r="B104" s="158"/>
+      <c r="C104" s="207"/>
+      <c r="D104" s="164"/>
       <c r="E104" s="82"/>
       <c r="F104" s="85"/>
       <c r="G104" s="85"/>
@@ -8307,10 +8311,10 @@
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A105" s="210"/>
-      <c r="B105" s="164"/>
-      <c r="C105" s="186"/>
-      <c r="D105" s="164"/>
+      <c r="A105" s="198"/>
+      <c r="B105" s="158"/>
+      <c r="C105" s="239"/>
+      <c r="D105" s="158"/>
       <c r="E105" s="82"/>
       <c r="F105" s="86"/>
       <c r="G105" s="86"/>
@@ -8360,10 +8364,10 @@
       </c>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A106" s="163"/>
-      <c r="B106" s="164"/>
-      <c r="C106" s="186"/>
-      <c r="D106" s="164"/>
+      <c r="A106" s="159"/>
+      <c r="B106" s="158"/>
+      <c r="C106" s="239"/>
+      <c r="D106" s="158"/>
       <c r="E106" s="82"/>
       <c r="F106" s="86"/>
       <c r="G106" s="86"/>
@@ -8413,10 +8417,10 @@
       </c>
     </row>
     <row r="107" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="187"/>
-      <c r="B107" s="164"/>
-      <c r="C107" s="187"/>
-      <c r="D107" s="164"/>
+      <c r="A107" s="157"/>
+      <c r="B107" s="158"/>
+      <c r="C107" s="157"/>
+      <c r="D107" s="158"/>
       <c r="E107" s="82"/>
       <c r="F107" s="149"/>
       <c r="G107" s="149"/>
@@ -8464,14 +8468,14 @@
       </c>
     </row>
     <row r="108" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="174" t="s">
+      <c r="A108" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="164"/>
-      <c r="C108" s="194" t="s">
+      <c r="B108" s="158"/>
+      <c r="C108" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="164"/>
+      <c r="D108" s="158"/>
       <c r="E108" s="82"/>
       <c r="F108" s="101"/>
       <c r="G108" s="101"/>
@@ -8519,12 +8523,12 @@
       </c>
     </row>
     <row r="109" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="182"/>
-      <c r="B109" s="164"/>
-      <c r="C109" s="245" t="s">
+      <c r="A109" s="244"/>
+      <c r="B109" s="158"/>
+      <c r="C109" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="D109" s="164"/>
+      <c r="D109" s="158"/>
       <c r="E109" s="82"/>
       <c r="F109" s="85"/>
       <c r="G109" s="85"/>
@@ -8568,10 +8572,10 @@
       <c r="AS109" s="122"/>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A110" s="182"/>
-      <c r="B110" s="164"/>
-      <c r="C110" s="217"/>
-      <c r="D110" s="215"/>
+      <c r="A110" s="244"/>
+      <c r="B110" s="158"/>
+      <c r="C110" s="207"/>
+      <c r="D110" s="164"/>
       <c r="E110" s="82"/>
       <c r="F110" s="85"/>
       <c r="G110" s="85"/>
@@ -8619,10 +8623,10 @@
       </c>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A111" s="182"/>
-      <c r="B111" s="164"/>
-      <c r="C111" s="217"/>
-      <c r="D111" s="215"/>
+      <c r="A111" s="244"/>
+      <c r="B111" s="158"/>
+      <c r="C111" s="207"/>
+      <c r="D111" s="164"/>
       <c r="E111" s="82"/>
       <c r="F111" s="85"/>
       <c r="G111" s="85"/>
@@ -8667,10 +8671,10 @@
       <c r="AT111" s="76"/>
     </row>
     <row r="112" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="182"/>
-      <c r="B112" s="164"/>
-      <c r="C112" s="186"/>
-      <c r="D112" s="164"/>
+      <c r="A112" s="244"/>
+      <c r="B112" s="158"/>
+      <c r="C112" s="239"/>
+      <c r="D112" s="158"/>
       <c r="E112" s="82"/>
       <c r="F112" s="86"/>
       <c r="G112" s="86"/>
@@ -8718,12 +8722,12 @@
       </c>
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A113" s="163"/>
-      <c r="B113" s="164"/>
-      <c r="C113" s="245" t="s">
+      <c r="A113" s="159"/>
+      <c r="B113" s="158"/>
+      <c r="C113" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="164"/>
+      <c r="D113" s="158"/>
       <c r="E113" s="82"/>
       <c r="F113" s="101"/>
       <c r="G113" s="101"/>
@@ -8781,8 +8785,8 @@
     <row r="114" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A114" s="81"/>
       <c r="B114" s="81"/>
-      <c r="C114" s="186"/>
-      <c r="D114" s="164"/>
+      <c r="C114" s="239"/>
+      <c r="D114" s="158"/>
       <c r="E114" s="82"/>
       <c r="F114" s="86"/>
       <c r="G114" s="86"/>
@@ -8834,10 +8838,10 @@
       </c>
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A115" s="167"/>
-      <c r="B115" s="164"/>
-      <c r="C115" s="221"/>
-      <c r="D115" s="215"/>
+      <c r="A115" s="162"/>
+      <c r="B115" s="158"/>
+      <c r="C115" s="175"/>
+      <c r="D115" s="164"/>
       <c r="E115" s="82"/>
       <c r="F115" s="86"/>
       <c r="G115" s="86"/>
@@ -8889,10 +8893,10 @@
       </c>
     </row>
     <row r="116" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A116" s="167"/>
-      <c r="B116" s="164"/>
-      <c r="C116" s="221"/>
-      <c r="D116" s="215"/>
+      <c r="A116" s="162"/>
+      <c r="B116" s="158"/>
+      <c r="C116" s="175"/>
+      <c r="D116" s="164"/>
       <c r="E116" s="82"/>
       <c r="F116" s="86"/>
       <c r="G116" s="86"/>
@@ -8940,10 +8944,10 @@
       </c>
     </row>
     <row r="117" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A117" s="167"/>
-      <c r="B117" s="164"/>
-      <c r="C117" s="221"/>
-      <c r="D117" s="215"/>
+      <c r="A117" s="162"/>
+      <c r="B117" s="158"/>
+      <c r="C117" s="175"/>
+      <c r="D117" s="164"/>
       <c r="E117" s="82"/>
       <c r="F117" s="86"/>
       <c r="G117" s="86"/>
@@ -8991,10 +8995,10 @@
       </c>
     </row>
     <row r="118" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A118" s="167"/>
-      <c r="B118" s="164"/>
-      <c r="C118" s="221"/>
-      <c r="D118" s="215"/>
+      <c r="A118" s="162"/>
+      <c r="B118" s="158"/>
+      <c r="C118" s="175"/>
+      <c r="D118" s="164"/>
       <c r="E118" s="82"/>
       <c r="F118" s="86"/>
       <c r="G118" s="86"/>
@@ -9042,10 +9046,10 @@
       </c>
     </row>
     <row r="119" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A119" s="167"/>
-      <c r="B119" s="164"/>
-      <c r="C119" s="221"/>
-      <c r="D119" s="215"/>
+      <c r="A119" s="162"/>
+      <c r="B119" s="158"/>
+      <c r="C119" s="175"/>
+      <c r="D119" s="164"/>
       <c r="E119" s="82"/>
       <c r="F119" s="86"/>
       <c r="G119" s="86"/>
@@ -9093,10 +9097,10 @@
       </c>
     </row>
     <row r="120" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="167"/>
-      <c r="B120" s="164"/>
-      <c r="C120" s="167"/>
-      <c r="D120" s="164"/>
+      <c r="A120" s="162"/>
+      <c r="B120" s="158"/>
+      <c r="C120" s="162"/>
+      <c r="D120" s="158"/>
       <c r="E120" s="152"/>
       <c r="F120" s="86"/>
       <c r="G120" s="86"/>
@@ -9144,12 +9148,12 @@
       </c>
     </row>
     <row r="121" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A121" s="167"/>
-      <c r="B121" s="164"/>
-      <c r="C121" s="245" t="s">
+      <c r="A121" s="162"/>
+      <c r="B121" s="158"/>
+      <c r="C121" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="164"/>
+      <c r="D121" s="158"/>
       <c r="E121" s="152"/>
       <c r="F121" s="101"/>
       <c r="G121" s="101"/>
@@ -9197,10 +9201,10 @@
       </c>
     </row>
     <row r="122" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A122" s="167"/>
-      <c r="B122" s="164"/>
-      <c r="C122" s="167"/>
-      <c r="D122" s="164"/>
+      <c r="A122" s="162"/>
+      <c r="B122" s="158"/>
+      <c r="C122" s="162"/>
+      <c r="D122" s="158"/>
       <c r="E122" s="152"/>
       <c r="F122" s="86"/>
       <c r="G122" s="86"/>
@@ -9248,10 +9252,10 @@
       </c>
     </row>
     <row r="123" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A123" s="167"/>
-      <c r="B123" s="164"/>
-      <c r="C123" s="167"/>
-      <c r="D123" s="164"/>
+      <c r="A123" s="162"/>
+      <c r="B123" s="158"/>
+      <c r="C123" s="162"/>
+      <c r="D123" s="158"/>
       <c r="E123" s="152"/>
       <c r="F123" s="86"/>
       <c r="G123" s="86"/>
@@ -9299,10 +9303,10 @@
       </c>
     </row>
     <row r="124" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A124" s="167"/>
-      <c r="B124" s="164"/>
-      <c r="C124" s="167"/>
-      <c r="D124" s="164"/>
+      <c r="A124" s="162"/>
+      <c r="B124" s="158"/>
+      <c r="C124" s="162"/>
+      <c r="D124" s="158"/>
       <c r="E124" s="152"/>
       <c r="F124" s="86"/>
       <c r="G124" s="86"/>
@@ -9350,10 +9354,10 @@
       </c>
     </row>
     <row r="125" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A125" s="167"/>
-      <c r="B125" s="164"/>
-      <c r="C125" s="167"/>
-      <c r="D125" s="164"/>
+      <c r="A125" s="162"/>
+      <c r="B125" s="158"/>
+      <c r="C125" s="162"/>
+      <c r="D125" s="158"/>
       <c r="E125" s="152"/>
       <c r="F125" s="86"/>
       <c r="G125" s="86"/>
@@ -9401,10 +9405,10 @@
       </c>
     </row>
     <row r="126" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A126" s="167"/>
-      <c r="B126" s="164"/>
-      <c r="C126" s="167"/>
-      <c r="D126" s="164"/>
+      <c r="A126" s="162"/>
+      <c r="B126" s="158"/>
+      <c r="C126" s="162"/>
+      <c r="D126" s="158"/>
       <c r="E126" s="152"/>
       <c r="F126" s="86"/>
       <c r="G126" s="86"/>
@@ -9452,8 +9456,8 @@
       </c>
     </row>
     <row r="127" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="167"/>
-      <c r="B127" s="164"/>
+      <c r="A127" s="162"/>
+      <c r="B127" s="158"/>
       <c r="E127" s="152"/>
       <c r="F127" s="86"/>
       <c r="G127" s="86"/>
@@ -9501,12 +9505,12 @@
       </c>
     </row>
     <row r="128" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A128" s="167"/>
-      <c r="B128" s="164"/>
-      <c r="C128" s="245" t="s">
+      <c r="A128" s="162"/>
+      <c r="B128" s="158"/>
+      <c r="C128" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="164"/>
+      <c r="D128" s="158"/>
       <c r="E128" s="152"/>
       <c r="F128" s="155"/>
       <c r="G128" s="101"/>
@@ -9566,10 +9570,10 @@
       </c>
     </row>
     <row r="129" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A129" s="167"/>
-      <c r="B129" s="164"/>
-      <c r="C129" s="218"/>
-      <c r="D129" s="215"/>
+      <c r="A129" s="162"/>
+      <c r="B129" s="158"/>
+      <c r="C129" s="203"/>
+      <c r="D129" s="164"/>
       <c r="E129" s="152"/>
       <c r="F129" s="86"/>
       <c r="G129" s="86"/>
@@ -9617,10 +9621,10 @@
       </c>
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A130" s="167"/>
-      <c r="B130" s="164"/>
-      <c r="C130" s="221"/>
-      <c r="D130" s="215"/>
+      <c r="A130" s="162"/>
+      <c r="B130" s="158"/>
+      <c r="C130" s="175"/>
+      <c r="D130" s="164"/>
       <c r="E130" s="82"/>
       <c r="F130" s="86"/>
       <c r="G130" s="86"/>
@@ -9668,10 +9672,10 @@
       </c>
     </row>
     <row r="131" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A131" s="167"/>
-      <c r="B131" s="164"/>
-      <c r="C131" s="221"/>
-      <c r="D131" s="215"/>
+      <c r="A131" s="162"/>
+      <c r="B131" s="158"/>
+      <c r="C131" s="175"/>
+      <c r="D131" s="164"/>
       <c r="E131" s="82"/>
       <c r="F131" s="86"/>
       <c r="G131" s="86"/>
@@ -9719,8 +9723,8 @@
       </c>
     </row>
     <row r="132" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A132" s="167"/>
-      <c r="B132" s="164"/>
+      <c r="A132" s="162"/>
+      <c r="B132" s="158"/>
       <c r="E132" s="82"/>
       <c r="F132" s="86"/>
       <c r="G132" s="86"/>
@@ -9768,10 +9772,10 @@
       </c>
     </row>
     <row r="133" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A133" s="167"/>
-      <c r="B133" s="164"/>
-      <c r="C133" s="221"/>
-      <c r="D133" s="215"/>
+      <c r="A133" s="162"/>
+      <c r="B133" s="158"/>
+      <c r="C133" s="175"/>
+      <c r="D133" s="164"/>
       <c r="E133" s="82"/>
       <c r="F133" s="86"/>
       <c r="G133" s="86"/>
@@ -9819,10 +9823,10 @@
       </c>
     </row>
     <row r="134" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A134" s="165"/>
-      <c r="B134" s="289"/>
-      <c r="C134" s="221"/>
-      <c r="D134" s="215"/>
+      <c r="A134" s="189"/>
+      <c r="B134" s="190"/>
+      <c r="C134" s="175"/>
+      <c r="D134" s="164"/>
       <c r="E134" s="82"/>
       <c r="F134" s="86"/>
       <c r="G134" s="86"/>
@@ -9870,10 +9874,10 @@
       </c>
     </row>
     <row r="135" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A135" s="167"/>
-      <c r="B135" s="164"/>
-      <c r="C135" s="224"/>
-      <c r="D135" s="225"/>
+      <c r="A135" s="162"/>
+      <c r="B135" s="158"/>
+      <c r="C135" s="275"/>
+      <c r="D135" s="270"/>
       <c r="E135" s="82"/>
       <c r="F135" s="86"/>
       <c r="G135" s="86"/>
@@ -9921,10 +9925,10 @@
       </c>
     </row>
     <row r="136" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A136" s="287"/>
-      <c r="B136" s="288"/>
-      <c r="C136" s="292"/>
-      <c r="D136" s="293"/>
+      <c r="A136" s="187"/>
+      <c r="B136" s="188"/>
+      <c r="C136" s="261"/>
+      <c r="D136" s="262"/>
       <c r="E136" s="82"/>
       <c r="F136" s="86"/>
       <c r="G136" s="86"/>
@@ -9972,10 +9976,10 @@
       </c>
     </row>
     <row r="137" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A137" s="285"/>
-      <c r="B137" s="286"/>
-      <c r="C137" s="239"/>
-      <c r="D137" s="240"/>
+      <c r="A137" s="185"/>
+      <c r="B137" s="186"/>
+      <c r="C137" s="259"/>
+      <c r="D137" s="260"/>
       <c r="E137" s="82"/>
       <c r="F137" s="86"/>
       <c r="G137" s="86"/>
@@ -10023,10 +10027,10 @@
       </c>
     </row>
     <row r="138" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A138" s="167"/>
-      <c r="B138" s="164"/>
-      <c r="C138" s="221"/>
-      <c r="D138" s="215"/>
+      <c r="A138" s="162"/>
+      <c r="B138" s="158"/>
+      <c r="C138" s="175"/>
+      <c r="D138" s="164"/>
       <c r="E138" s="82"/>
       <c r="F138" s="86"/>
       <c r="G138" s="86"/>
@@ -10074,10 +10078,10 @@
       </c>
     </row>
     <row r="139" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A139" s="167"/>
-      <c r="B139" s="164"/>
-      <c r="C139" s="221"/>
-      <c r="D139" s="215"/>
+      <c r="A139" s="162"/>
+      <c r="B139" s="158"/>
+      <c r="C139" s="175"/>
+      <c r="D139" s="164"/>
       <c r="E139" s="82"/>
       <c r="F139" s="86"/>
       <c r="G139" s="86"/>
@@ -10125,10 +10129,10 @@
       </c>
     </row>
     <row r="140" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A140" s="165"/>
+      <c r="A140" s="189"/>
       <c r="B140" s="166"/>
-      <c r="C140" s="294"/>
-      <c r="D140" s="225"/>
+      <c r="C140" s="269"/>
+      <c r="D140" s="270"/>
       <c r="E140" s="82"/>
       <c r="F140" s="86"/>
       <c r="G140" s="86"/>
@@ -10176,10 +10180,10 @@
       </c>
     </row>
     <row r="141" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A141" s="167"/>
-      <c r="B141" s="164"/>
-      <c r="C141" s="221"/>
-      <c r="D141" s="215"/>
+      <c r="A141" s="162"/>
+      <c r="B141" s="158"/>
+      <c r="C141" s="175"/>
+      <c r="D141" s="164"/>
       <c r="E141" s="82"/>
       <c r="F141" s="86"/>
       <c r="G141" s="86"/>
@@ -10227,10 +10231,10 @@
       </c>
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A142" s="167"/>
-      <c r="B142" s="164"/>
-      <c r="C142" s="221"/>
-      <c r="D142" s="215"/>
+      <c r="A142" s="162"/>
+      <c r="B142" s="158"/>
+      <c r="C142" s="175"/>
+      <c r="D142" s="164"/>
       <c r="E142" s="82"/>
       <c r="F142" s="86"/>
       <c r="G142" s="86"/>
@@ -10278,10 +10282,10 @@
       </c>
     </row>
     <row r="143" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A143" s="284"/>
-      <c r="B143" s="189"/>
-      <c r="C143" s="221"/>
-      <c r="D143" s="215"/>
+      <c r="A143" s="211"/>
+      <c r="B143" s="212"/>
+      <c r="C143" s="175"/>
+      <c r="D143" s="164"/>
       <c r="E143" s="82"/>
       <c r="F143" s="86"/>
       <c r="G143" s="86"/>
@@ -10329,10 +10333,10 @@
       </c>
     </row>
     <row r="144" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="290"/>
-      <c r="B144" s="291"/>
-      <c r="C144" s="221"/>
-      <c r="D144" s="215"/>
+      <c r="A144" s="183"/>
+      <c r="B144" s="184"/>
+      <c r="C144" s="175"/>
+      <c r="D144" s="164"/>
       <c r="E144" s="82"/>
       <c r="F144" s="86"/>
       <c r="G144" s="86"/>
@@ -10380,10 +10384,10 @@
       </c>
     </row>
     <row r="145" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="261"/>
-      <c r="B145" s="189"/>
-      <c r="C145" s="187"/>
-      <c r="D145" s="164"/>
+      <c r="A145" s="221"/>
+      <c r="B145" s="212"/>
+      <c r="C145" s="157"/>
+      <c r="D145" s="158"/>
       <c r="E145" s="82"/>
       <c r="F145" s="149"/>
       <c r="G145" s="149"/>
@@ -10431,25 +10435,25 @@
       </c>
     </row>
     <row r="146" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A146" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="282"/>
-      <c r="C146" s="282"/>
-      <c r="D146" s="283"/>
-      <c r="E146" s="196" t="s">
+      <c r="A146" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="181"/>
+      <c r="C146" s="181"/>
+      <c r="D146" s="182"/>
+      <c r="E146" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="F146" s="197"/>
-      <c r="G146" s="197"/>
-      <c r="H146" s="197"/>
-      <c r="I146" s="197"/>
-      <c r="J146" s="197"/>
-      <c r="K146" s="197"/>
-      <c r="L146" s="197"/>
-      <c r="M146" s="197"/>
-      <c r="N146" s="197"/>
-      <c r="O146" s="198"/>
+      <c r="F146" s="170"/>
+      <c r="G146" s="170"/>
+      <c r="H146" s="170"/>
+      <c r="I146" s="170"/>
+      <c r="J146" s="170"/>
+      <c r="K146" s="170"/>
+      <c r="L146" s="170"/>
+      <c r="M146" s="170"/>
+      <c r="N146" s="170"/>
+      <c r="O146" s="171"/>
       <c r="P146" s="22"/>
       <c r="Q146" s="47"/>
       <c r="R146" s="48"/>
@@ -10486,16 +10490,16 @@
       </c>
     </row>
     <row r="147" spans="1:46" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="278" t="s">
+      <c r="A147" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="B147" s="212"/>
-      <c r="C147" s="212"/>
-      <c r="D147" s="212"/>
-      <c r="E147" s="259" t="s">
+      <c r="B147" s="173"/>
+      <c r="C147" s="173"/>
+      <c r="D147" s="173"/>
+      <c r="E147" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F147" s="158"/>
+      <c r="F147" s="234"/>
       <c r="G147" s="65"/>
       <c r="H147" s="64"/>
       <c r="I147" s="64" t="s">
@@ -10505,10 +10509,10 @@
       <c r="K147" s="65"/>
       <c r="L147" s="65"/>
       <c r="M147" s="65"/>
-      <c r="N147" s="180" t="s">
+      <c r="N147" s="291" t="s">
         <v>48</v>
       </c>
-      <c r="O147" s="159"/>
+      <c r="O147" s="287"/>
       <c r="R147" s="43"/>
       <c r="S147" s="43"/>
       <c r="T147" s="43"/>
@@ -10524,31 +10528,31 @@
       <c r="AE147" s="37"/>
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A148" s="200" t="s">
+      <c r="A148" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="B148" s="160"/>
-      <c r="C148" s="160"/>
-      <c r="D148" s="160"/>
-      <c r="E148" s="199">
+      <c r="B148" s="178"/>
+      <c r="C148" s="178"/>
+      <c r="D148" s="178"/>
+      <c r="E148" s="200">
         <f>AT9</f>
         <v>0</v>
       </c>
-      <c r="F148" s="160"/>
+      <c r="F148" s="178"/>
       <c r="G148" s="2"/>
-      <c r="H148" s="173">
+      <c r="H148" s="179">
         <v>729</v>
       </c>
-      <c r="I148" s="160"/>
-      <c r="J148" s="160"/>
+      <c r="I148" s="178"/>
+      <c r="J148" s="178"/>
       <c r="K148" s="2"/>
-      <c r="L148" s="192">
+      <c r="L148" s="208">
         <f t="shared" ref="L148:L164" si="10">E148*H148</f>
         <v>0</v>
       </c>
-      <c r="M148" s="160"/>
-      <c r="N148" s="160"/>
-      <c r="O148" s="161"/>
+      <c r="M148" s="178"/>
+      <c r="N148" s="178"/>
+      <c r="O148" s="209"/>
       <c r="Q148" s="34"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
@@ -10565,67 +10569,67 @@
       <c r="AE148" s="1"/>
     </row>
     <row r="149" spans="1:46" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="200" t="s">
+      <c r="A149" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="B149" s="160"/>
-      <c r="C149" s="160"/>
-      <c r="D149" s="160"/>
-      <c r="E149" s="199">
+      <c r="B149" s="178"/>
+      <c r="C149" s="178"/>
+      <c r="D149" s="178"/>
+      <c r="E149" s="200">
         <f>AT17</f>
         <v>0</v>
       </c>
-      <c r="F149" s="160"/>
+      <c r="F149" s="178"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="173">
+      <c r="H149" s="179">
         <v>701</v>
       </c>
-      <c r="I149" s="160"/>
-      <c r="J149" s="160"/>
+      <c r="I149" s="178"/>
+      <c r="J149" s="178"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="192">
+      <c r="L149" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M149" s="160"/>
-      <c r="N149" s="160"/>
-      <c r="O149" s="161"/>
+      <c r="M149" s="178"/>
+      <c r="N149" s="178"/>
+      <c r="O149" s="209"/>
       <c r="R149" s="33"/>
       <c r="T149" s="2"/>
       <c r="Y149" s="39"/>
       <c r="Z149" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AA149" s="253"/>
-      <c r="AB149" s="160"/>
+      <c r="AA149" s="240"/>
+      <c r="AB149" s="178"/>
       <c r="AE149" s="1"/>
     </row>
     <row r="150" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="200" t="s">
+      <c r="A150" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="B150" s="160"/>
-      <c r="C150" s="160"/>
-      <c r="D150" s="160"/>
-      <c r="E150" s="199">
+      <c r="B150" s="178"/>
+      <c r="C150" s="178"/>
+      <c r="D150" s="178"/>
+      <c r="E150" s="200">
         <f>AA149</f>
         <v>0</v>
       </c>
-      <c r="F150" s="160"/>
+      <c r="F150" s="178"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="173">
+      <c r="H150" s="179">
         <v>350.5</v>
       </c>
-      <c r="I150" s="160"/>
-      <c r="J150" s="160"/>
+      <c r="I150" s="178"/>
+      <c r="J150" s="178"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="192">
+      <c r="L150" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M150" s="160"/>
-      <c r="N150" s="160"/>
-      <c r="O150" s="161"/>
+      <c r="M150" s="178"/>
+      <c r="N150" s="178"/>
+      <c r="O150" s="209"/>
       <c r="X150" s="2"/>
       <c r="Y150" s="40"/>
       <c r="Z150" s="24"/>
@@ -10636,31 +10640,31 @@
       <c r="AE150" s="42"/>
     </row>
     <row r="151" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A151" s="200" t="s">
+      <c r="A151" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="B151" s="160"/>
-      <c r="C151" s="160"/>
-      <c r="D151" s="160"/>
-      <c r="E151" s="199">
+      <c r="B151" s="178"/>
+      <c r="C151" s="178"/>
+      <c r="D151" s="178"/>
+      <c r="E151" s="200">
         <f>AT48</f>
         <v>0</v>
       </c>
-      <c r="F151" s="160"/>
+      <c r="F151" s="178"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="173">
+      <c r="H151" s="179">
         <v>667</v>
       </c>
-      <c r="I151" s="160"/>
-      <c r="J151" s="160"/>
+      <c r="I151" s="178"/>
+      <c r="J151" s="178"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="192">
+      <c r="L151" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M151" s="160"/>
-      <c r="N151" s="160"/>
-      <c r="O151" s="161"/>
+      <c r="M151" s="178"/>
+      <c r="N151" s="178"/>
+      <c r="O151" s="209"/>
       <c r="X151" s="31"/>
       <c r="Y151" s="31"/>
       <c r="Z151" s="31"/>
@@ -10672,31 +10676,31 @@
       <c r="AF151" s="31"/>
     </row>
     <row r="152" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="200" t="s">
+      <c r="A152" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="B152" s="160"/>
-      <c r="C152" s="160"/>
-      <c r="D152" s="160"/>
-      <c r="E152" s="199">
+      <c r="B152" s="178"/>
+      <c r="C152" s="178"/>
+      <c r="D152" s="178"/>
+      <c r="E152" s="200">
         <f>AA155</f>
         <v>0</v>
       </c>
-      <c r="F152" s="160"/>
+      <c r="F152" s="178"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="173">
+      <c r="H152" s="179">
         <v>333.5</v>
       </c>
-      <c r="I152" s="160"/>
-      <c r="J152" s="160"/>
+      <c r="I152" s="178"/>
+      <c r="J152" s="178"/>
       <c r="K152" s="2"/>
-      <c r="L152" s="192">
+      <c r="L152" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M152" s="160"/>
-      <c r="N152" s="160"/>
-      <c r="O152" s="161"/>
+      <c r="M152" s="178"/>
+      <c r="N152" s="178"/>
+      <c r="O152" s="209"/>
       <c r="X152" s="31"/>
       <c r="Y152" s="31"/>
       <c r="Z152" s="31"/>
@@ -10708,31 +10712,31 @@
       <c r="AF152" s="31"/>
     </row>
     <row r="153" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A153" s="200" t="s">
+      <c r="A153" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="B153" s="160"/>
-      <c r="C153" s="160"/>
-      <c r="D153" s="160"/>
-      <c r="E153" s="199">
+      <c r="B153" s="178"/>
+      <c r="C153" s="178"/>
+      <c r="D153" s="178"/>
+      <c r="E153" s="200">
         <f>AT87</f>
         <v>0</v>
       </c>
-      <c r="F153" s="160"/>
+      <c r="F153" s="178"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="173">
+      <c r="H153" s="179">
         <v>224</v>
       </c>
-      <c r="I153" s="160"/>
-      <c r="J153" s="160"/>
+      <c r="I153" s="178"/>
+      <c r="J153" s="178"/>
       <c r="K153" s="2"/>
-      <c r="L153" s="192">
+      <c r="L153" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M153" s="160"/>
-      <c r="N153" s="160"/>
-      <c r="O153" s="161"/>
+      <c r="M153" s="178"/>
+      <c r="N153" s="178"/>
+      <c r="O153" s="209"/>
       <c r="Q153" s="43"/>
       <c r="R153" s="43"/>
       <c r="S153" s="43"/>
@@ -10747,31 +10751,31 @@
       <c r="AE153" s="37"/>
     </row>
     <row r="154" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A154" s="200" t="s">
+      <c r="A154" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="B154" s="160"/>
-      <c r="C154" s="160"/>
-      <c r="D154" s="160"/>
-      <c r="E154" s="227">
+      <c r="B154" s="178"/>
+      <c r="C154" s="178"/>
+      <c r="D154" s="178"/>
+      <c r="E154" s="243">
         <f>AT82</f>
         <v>0</v>
       </c>
-      <c r="F154" s="160"/>
+      <c r="F154" s="178"/>
       <c r="G154" s="45"/>
-      <c r="H154" s="179">
+      <c r="H154" s="238">
         <v>796</v>
       </c>
-      <c r="I154" s="160"/>
-      <c r="J154" s="160"/>
+      <c r="I154" s="178"/>
+      <c r="J154" s="178"/>
       <c r="K154" s="45"/>
-      <c r="L154" s="274">
+      <c r="L154" s="220">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M154" s="160"/>
-      <c r="N154" s="160"/>
-      <c r="O154" s="161"/>
+      <c r="M154" s="178"/>
+      <c r="N154" s="178"/>
+      <c r="O154" s="209"/>
       <c r="Q154" s="34"/>
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
@@ -10787,65 +10791,65 @@
       <c r="AE154" s="1"/>
     </row>
     <row r="155" spans="1:46" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="254" t="s">
+      <c r="A155" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="B155" s="160"/>
-      <c r="C155" s="160"/>
-      <c r="D155" s="160"/>
-      <c r="E155" s="227">
+      <c r="B155" s="178"/>
+      <c r="C155" s="178"/>
+      <c r="D155" s="178"/>
+      <c r="E155" s="243">
         <f>AT92</f>
         <v>0</v>
       </c>
-      <c r="F155" s="160"/>
+      <c r="F155" s="178"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="179">
+      <c r="H155" s="238">
         <v>897</v>
       </c>
-      <c r="I155" s="160"/>
-      <c r="J155" s="160"/>
+      <c r="I155" s="178"/>
+      <c r="J155" s="178"/>
       <c r="K155" s="2"/>
-      <c r="L155" s="192">
+      <c r="L155" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M155" s="160"/>
-      <c r="N155" s="160"/>
-      <c r="O155" s="161"/>
+      <c r="M155" s="178"/>
+      <c r="N155" s="178"/>
+      <c r="O155" s="209"/>
       <c r="R155" s="33"/>
-      <c r="S155" s="271"/>
-      <c r="T155" s="160"/>
+      <c r="S155" s="201"/>
+      <c r="T155" s="178"/>
       <c r="Y155" s="39"/>
       <c r="Z155" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AA155" s="253"/>
-      <c r="AB155" s="160"/>
+      <c r="AA155" s="240"/>
+      <c r="AB155" s="178"/>
       <c r="AE155" s="1"/>
     </row>
     <row r="156" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="200" t="s">
+      <c r="A156" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="B156" s="160"/>
-      <c r="C156" s="160"/>
-      <c r="D156" s="160"/>
-      <c r="E156" s="199"/>
-      <c r="F156" s="160"/>
+      <c r="B156" s="178"/>
+      <c r="C156" s="178"/>
+      <c r="D156" s="178"/>
+      <c r="E156" s="200"/>
+      <c r="F156" s="178"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="173">
+      <c r="H156" s="179">
         <v>667</v>
       </c>
-      <c r="I156" s="160"/>
-      <c r="J156" s="160"/>
+      <c r="I156" s="178"/>
+      <c r="J156" s="178"/>
       <c r="K156" s="2"/>
-      <c r="L156" s="192">
+      <c r="L156" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M156" s="160"/>
-      <c r="N156" s="160"/>
-      <c r="O156" s="161"/>
+      <c r="M156" s="178"/>
+      <c r="N156" s="178"/>
+      <c r="O156" s="209"/>
       <c r="Y156" s="40"/>
       <c r="Z156" s="24"/>
       <c r="AA156" s="41"/>
@@ -10855,51 +10859,51 @@
       <c r="AE156" s="42"/>
     </row>
     <row r="157" spans="1:46" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="200" t="s">
+      <c r="A157" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B157" s="160"/>
-      <c r="C157" s="160"/>
-      <c r="D157" s="160"/>
-      <c r="E157" s="199">
+      <c r="B157" s="178"/>
+      <c r="C157" s="178"/>
+      <c r="D157" s="178"/>
+      <c r="E157" s="200">
         <f>AT77</f>
         <v>0</v>
       </c>
-      <c r="F157" s="160"/>
+      <c r="F157" s="178"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="173">
+      <c r="H157" s="179">
         <v>448</v>
       </c>
-      <c r="I157" s="160"/>
-      <c r="J157" s="160"/>
+      <c r="I157" s="178"/>
+      <c r="J157" s="178"/>
       <c r="K157" s="2"/>
-      <c r="L157" s="192">
+      <c r="L157" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M157" s="160"/>
-      <c r="N157" s="160"/>
-      <c r="O157" s="161"/>
+      <c r="M157" s="178"/>
+      <c r="N157" s="178"/>
+      <c r="O157" s="209"/>
     </row>
     <row r="158" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A158" s="200"/>
-      <c r="B158" s="160"/>
-      <c r="C158" s="160"/>
-      <c r="D158" s="160"/>
-      <c r="E158" s="199"/>
-      <c r="F158" s="160"/>
+      <c r="A158" s="177"/>
+      <c r="B158" s="178"/>
+      <c r="C158" s="178"/>
+      <c r="D158" s="178"/>
+      <c r="E158" s="200"/>
+      <c r="F158" s="178"/>
       <c r="G158" s="2"/>
-      <c r="H158" s="173"/>
-      <c r="I158" s="160"/>
-      <c r="J158" s="160"/>
+      <c r="H158" s="179"/>
+      <c r="I158" s="178"/>
+      <c r="J158" s="178"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="192">
+      <c r="L158" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M158" s="160"/>
-      <c r="N158" s="160"/>
-      <c r="O158" s="161"/>
+      <c r="M158" s="178"/>
+      <c r="N158" s="178"/>
+      <c r="O158" s="209"/>
       <c r="V158" s="4"/>
       <c r="Y158" s="80"/>
       <c r="Z158" s="78"/>
@@ -10910,62 +10914,62 @@
       <c r="AE158" s="77"/>
     </row>
     <row r="159" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A159" s="200" t="s">
+      <c r="A159" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="B159" s="160"/>
-      <c r="C159" s="160"/>
-      <c r="D159" s="160"/>
-      <c r="E159" s="199">
+      <c r="B159" s="178"/>
+      <c r="C159" s="178"/>
+      <c r="D159" s="178"/>
+      <c r="E159" s="200">
         <f>AT113</f>
         <v>0</v>
       </c>
-      <c r="F159" s="160"/>
+      <c r="F159" s="178"/>
       <c r="G159" s="2"/>
-      <c r="H159" s="173">
+      <c r="H159" s="179">
         <v>1233</v>
       </c>
-      <c r="I159" s="160"/>
-      <c r="J159" s="160"/>
+      <c r="I159" s="178"/>
+      <c r="J159" s="178"/>
       <c r="K159" s="2"/>
-      <c r="L159" s="192">
+      <c r="L159" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M159" s="160"/>
-      <c r="N159" s="160"/>
-      <c r="O159" s="161"/>
+      <c r="M159" s="178"/>
+      <c r="N159" s="178"/>
+      <c r="O159" s="209"/>
       <c r="Y159" s="38" t="s">
         <v>63</v>
       </c>
       <c r="AE159" s="1"/>
     </row>
     <row r="160" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="200" t="s">
+      <c r="A160" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B160" s="160"/>
-      <c r="C160" s="160"/>
-      <c r="D160" s="160"/>
-      <c r="E160" s="199">
+      <c r="B160" s="178"/>
+      <c r="C160" s="178"/>
+      <c r="D160" s="178"/>
+      <c r="E160" s="200">
         <f>AT102</f>
         <v>0</v>
       </c>
-      <c r="F160" s="160"/>
+      <c r="F160" s="178"/>
       <c r="G160" s="2"/>
-      <c r="H160" s="173">
+      <c r="H160" s="179">
         <v>908</v>
       </c>
-      <c r="I160" s="160"/>
-      <c r="J160" s="160"/>
+      <c r="I160" s="178"/>
+      <c r="J160" s="178"/>
       <c r="K160" s="2"/>
-      <c r="L160" s="192">
+      <c r="L160" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M160" s="160"/>
-      <c r="N160" s="160"/>
-      <c r="O160" s="161"/>
+      <c r="M160" s="178"/>
+      <c r="N160" s="178"/>
+      <c r="O160" s="209"/>
       <c r="Q160" s="44"/>
       <c r="R160" s="44"/>
       <c r="S160" s="44"/>
@@ -10976,39 +10980,39 @@
       <c r="Z160" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA160" s="162">
+      <c r="AA160" s="288">
         <f>AT128</f>
         <v>0</v>
       </c>
-      <c r="AB160" s="160"/>
+      <c r="AB160" s="178"/>
       <c r="AE160" s="1"/>
     </row>
     <row r="161" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="200" t="s">
+      <c r="A161" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="B161" s="160"/>
-      <c r="C161" s="160"/>
-      <c r="D161" s="160"/>
-      <c r="E161" s="199">
+      <c r="B161" s="178"/>
+      <c r="C161" s="178"/>
+      <c r="D161" s="178"/>
+      <c r="E161" s="200">
         <f>AT108</f>
         <v>0</v>
       </c>
-      <c r="F161" s="160"/>
+      <c r="F161" s="178"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="173">
+      <c r="H161" s="179">
         <v>1121</v>
       </c>
-      <c r="I161" s="160"/>
-      <c r="J161" s="160"/>
+      <c r="I161" s="178"/>
+      <c r="J161" s="178"/>
       <c r="K161" s="2"/>
-      <c r="L161" s="192">
+      <c r="L161" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M161" s="160"/>
-      <c r="N161" s="160"/>
-      <c r="O161" s="161"/>
+      <c r="M161" s="178"/>
+      <c r="N161" s="178"/>
+      <c r="O161" s="209"/>
       <c r="Q161" s="44"/>
       <c r="R161" s="44"/>
       <c r="S161" s="44"/>
@@ -11024,24 +11028,24 @@
       <c r="AE161" s="42"/>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A162" s="200"/>
-      <c r="B162" s="160"/>
-      <c r="C162" s="160"/>
-      <c r="D162" s="160"/>
-      <c r="E162" s="273"/>
-      <c r="F162" s="160"/>
+      <c r="A162" s="177"/>
+      <c r="B162" s="178"/>
+      <c r="C162" s="178"/>
+      <c r="D162" s="178"/>
+      <c r="E162" s="205"/>
+      <c r="F162" s="178"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="181"/>
-      <c r="I162" s="160"/>
-      <c r="J162" s="160"/>
+      <c r="H162" s="292"/>
+      <c r="I162" s="178"/>
+      <c r="J162" s="178"/>
       <c r="K162" s="2"/>
-      <c r="L162" s="192">
+      <c r="L162" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M162" s="160"/>
-      <c r="N162" s="160"/>
-      <c r="O162" s="161"/>
+      <c r="M162" s="178"/>
+      <c r="N162" s="178"/>
+      <c r="O162" s="209"/>
       <c r="Q162" s="44"/>
       <c r="R162" s="44"/>
       <c r="S162" s="44"/>
@@ -11050,31 +11054,31 @@
       <c r="V162" s="44"/>
     </row>
     <row r="163" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="200" t="s">
+      <c r="A163" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="B163" s="160"/>
-      <c r="C163" s="160"/>
-      <c r="D163" s="160"/>
-      <c r="E163" s="199">
+      <c r="B163" s="178"/>
+      <c r="C163" s="178"/>
+      <c r="D163" s="178"/>
+      <c r="E163" s="200">
         <f>AT25</f>
         <v>0</v>
       </c>
-      <c r="F163" s="160"/>
+      <c r="F163" s="178"/>
       <c r="G163" s="2"/>
-      <c r="H163" s="173">
+      <c r="H163" s="179">
         <v>3.9</v>
       </c>
-      <c r="I163" s="160"/>
-      <c r="J163" s="160"/>
+      <c r="I163" s="178"/>
+      <c r="J163" s="178"/>
       <c r="K163" s="2"/>
-      <c r="L163" s="192">
+      <c r="L163" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M163" s="160"/>
-      <c r="N163" s="160"/>
-      <c r="O163" s="161"/>
+      <c r="M163" s="178"/>
+      <c r="N163" s="178"/>
+      <c r="O163" s="209"/>
       <c r="Q163" s="44"/>
       <c r="R163" s="44"/>
       <c r="S163" s="44"/>
@@ -11083,31 +11087,31 @@
       <c r="V163" s="44"/>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A164" s="200" t="s">
+      <c r="A164" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="B164" s="160"/>
-      <c r="C164" s="160"/>
-      <c r="D164" s="160"/>
-      <c r="E164" s="199">
+      <c r="B164" s="178"/>
+      <c r="C164" s="178"/>
+      <c r="D164" s="178"/>
+      <c r="E164" s="200">
         <f>AT68</f>
         <v>0</v>
       </c>
-      <c r="F164" s="160"/>
+      <c r="F164" s="178"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="173">
+      <c r="H164" s="179">
         <v>4.5</v>
       </c>
-      <c r="I164" s="160"/>
-      <c r="J164" s="160"/>
+      <c r="I164" s="178"/>
+      <c r="J164" s="178"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="192">
+      <c r="L164" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M164" s="160"/>
-      <c r="N164" s="160"/>
-      <c r="O164" s="161"/>
+      <c r="M164" s="178"/>
+      <c r="N164" s="178"/>
+      <c r="O164" s="209"/>
       <c r="Y164" s="80"/>
       <c r="Z164" s="78"/>
       <c r="AA164" s="78"/>
@@ -11117,57 +11121,57 @@
       <c r="AE164" s="77"/>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A165" s="200"/>
-      <c r="B165" s="160"/>
-      <c r="C165" s="160"/>
-      <c r="D165" s="160"/>
-      <c r="E165" s="172"/>
-      <c r="F165" s="160"/>
+      <c r="A165" s="177"/>
+      <c r="B165" s="178"/>
+      <c r="C165" s="178"/>
+      <c r="D165" s="178"/>
+      <c r="E165" s="191"/>
+      <c r="F165" s="178"/>
       <c r="G165" s="2"/>
-      <c r="H165" s="173"/>
-      <c r="I165" s="160"/>
-      <c r="J165" s="160"/>
+      <c r="H165" s="179"/>
+      <c r="I165" s="178"/>
+      <c r="J165" s="178"/>
       <c r="K165" s="5">
         <v>0.08</v>
       </c>
-      <c r="L165" s="192">
+      <c r="L165" s="208">
         <f>H165*1.08</f>
         <v>0</v>
       </c>
-      <c r="M165" s="160"/>
-      <c r="N165" s="160"/>
-      <c r="O165" s="161"/>
+      <c r="M165" s="178"/>
+      <c r="N165" s="178"/>
+      <c r="O165" s="209"/>
       <c r="Y165" s="38" t="s">
         <v>68</v>
       </c>
       <c r="AE165" s="1"/>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A166" s="200"/>
-      <c r="B166" s="160"/>
-      <c r="C166" s="160"/>
-      <c r="D166" s="160"/>
-      <c r="E166" s="172"/>
-      <c r="F166" s="160"/>
+      <c r="A166" s="177"/>
+      <c r="B166" s="178"/>
+      <c r="C166" s="178"/>
+      <c r="D166" s="178"/>
+      <c r="E166" s="191"/>
+      <c r="F166" s="178"/>
       <c r="G166" s="2"/>
-      <c r="H166" s="173"/>
-      <c r="I166" s="160"/>
-      <c r="J166" s="160"/>
+      <c r="H166" s="179"/>
+      <c r="I166" s="178"/>
+      <c r="J166" s="178"/>
       <c r="K166" s="5"/>
-      <c r="L166" s="192"/>
-      <c r="M166" s="160"/>
-      <c r="N166" s="160"/>
-      <c r="O166" s="161"/>
+      <c r="L166" s="208"/>
+      <c r="M166" s="178"/>
+      <c r="N166" s="178"/>
+      <c r="O166" s="209"/>
       <c r="P166" s="35"/>
       <c r="Y166" s="39"/>
       <c r="Z166" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA166" s="232">
+      <c r="AA166" s="265">
         <f>AT146*AC166</f>
         <v>0</v>
       </c>
-      <c r="AB166" s="160"/>
+      <c r="AB166" s="178"/>
       <c r="AC166">
         <v>701</v>
       </c>
@@ -11177,21 +11181,21 @@
       <c r="AE166" s="1"/>
     </row>
     <row r="167" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="200"/>
-      <c r="B167" s="160"/>
-      <c r="C167" s="160"/>
-      <c r="D167" s="160"/>
-      <c r="E167" s="172"/>
-      <c r="F167" s="160"/>
+      <c r="A167" s="177"/>
+      <c r="B167" s="178"/>
+      <c r="C167" s="178"/>
+      <c r="D167" s="178"/>
+      <c r="E167" s="191"/>
+      <c r="F167" s="178"/>
       <c r="G167" s="2"/>
-      <c r="H167" s="173"/>
-      <c r="I167" s="160"/>
-      <c r="J167" s="160"/>
+      <c r="H167" s="179"/>
+      <c r="I167" s="178"/>
+      <c r="J167" s="178"/>
       <c r="K167" s="5"/>
-      <c r="L167" s="192"/>
-      <c r="M167" s="160"/>
-      <c r="N167" s="160"/>
-      <c r="O167" s="161"/>
+      <c r="L167" s="208"/>
+      <c r="M167" s="178"/>
+      <c r="N167" s="178"/>
+      <c r="O167" s="209"/>
       <c r="P167" s="5"/>
       <c r="Y167" s="40"/>
       <c r="Z167" s="79" t="s">
@@ -11204,26 +11208,26 @@
       <c r="AE167" s="42"/>
     </row>
     <row r="168" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="183"/>
-      <c r="B168" s="184"/>
-      <c r="C168" s="184"/>
-      <c r="D168" s="184"/>
-      <c r="E168" s="275"/>
-      <c r="F168" s="197"/>
+      <c r="A168" s="279"/>
+      <c r="B168" s="280"/>
+      <c r="C168" s="280"/>
+      <c r="D168" s="280"/>
+      <c r="E168" s="192"/>
+      <c r="F168" s="170"/>
       <c r="G168" s="41"/>
-      <c r="H168" s="228"/>
-      <c r="I168" s="197"/>
-      <c r="J168" s="197"/>
+      <c r="H168" s="264"/>
+      <c r="I168" s="170"/>
+      <c r="J168" s="170"/>
       <c r="K168" s="25">
         <v>0.08</v>
       </c>
-      <c r="L168" s="277">
+      <c r="L168" s="169">
         <f>H168*1.08</f>
         <v>0</v>
       </c>
-      <c r="M168" s="197"/>
-      <c r="N168" s="197"/>
-      <c r="O168" s="198"/>
+      <c r="M168" s="170"/>
+      <c r="N168" s="170"/>
+      <c r="O168" s="171"/>
       <c r="P168" s="5"/>
     </row>
     <row r="169" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -11234,13 +11238,13 @@
       <c r="K169" t="s">
         <v>71</v>
       </c>
-      <c r="L169" s="201">
+      <c r="L169" s="278">
         <f>SUM(L148:O168)</f>
         <v>0</v>
       </c>
-      <c r="M169" s="160"/>
-      <c r="N169" s="160"/>
-      <c r="O169" s="160"/>
+      <c r="M169" s="178"/>
+      <c r="N169" s="178"/>
+      <c r="O169" s="178"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
@@ -11269,13 +11273,13 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="M171" s="266"/>
-      <c r="N171" s="160"/>
-      <c r="O171" s="160"/>
+      <c r="M171" s="206"/>
+      <c r="N171" s="178"/>
+      <c r="O171" s="178"/>
     </row>
     <row r="172" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A172" s="255"/>
-      <c r="B172" s="160"/>
+      <c r="A172" s="231"/>
+      <c r="B172" s="178"/>
       <c r="C172" s="13"/>
       <c r="D172" s="7"/>
       <c r="R172" t="s">
@@ -11289,19 +11293,19 @@
       </c>
     </row>
     <row r="173" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A173" s="256"/>
-      <c r="B173" s="160"/>
+      <c r="A173" s="232"/>
+      <c r="B173" s="178"/>
       <c r="C173" s="13"/>
       <c r="K173" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L173" s="191">
+      <c r="L173" s="276">
         <f>L169</f>
         <v>0</v>
       </c>
-      <c r="M173" s="160"/>
-      <c r="N173" s="160"/>
-      <c r="O173" s="160"/>
+      <c r="M173" s="178"/>
+      <c r="N173" s="178"/>
+      <c r="O173" s="178"/>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A174" s="14" t="s">
@@ -11331,1087 +11335,322 @@
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
     </row>
-    <row r="517" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F517">
-        <v>0</v>
-      </c>
-      <c r="G517">
-        <v>8</v>
-      </c>
-      <c r="H517">
-        <v>0</v>
-      </c>
-      <c r="I517">
-        <v>0</v>
-      </c>
-      <c r="J517">
-        <v>0</v>
-      </c>
-      <c r="K517">
-        <v>0</v>
-      </c>
-      <c r="L517">
-        <v>0</v>
-      </c>
-      <c r="M517">
-        <v>0</v>
-      </c>
-      <c r="N517">
-        <v>8</v>
-      </c>
-      <c r="O517">
-        <v>0</v>
-      </c>
-      <c r="P517">
-        <v>0</v>
-      </c>
-      <c r="Q517">
-        <v>0</v>
-      </c>
-      <c r="R517">
-        <v>0</v>
-      </c>
-      <c r="S517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F518">
-        <v>0</v>
-      </c>
-      <c r="G518">
-        <v>8</v>
-      </c>
-      <c r="H518">
-        <v>8</v>
-      </c>
-      <c r="I518">
-        <v>8</v>
-      </c>
-      <c r="J518">
-        <v>0</v>
-      </c>
-      <c r="K518">
-        <v>0</v>
-      </c>
-      <c r="L518">
-        <v>0</v>
-      </c>
-      <c r="M518">
-        <v>0</v>
-      </c>
-      <c r="N518">
-        <v>8</v>
-      </c>
-      <c r="O518">
-        <v>8</v>
-      </c>
-      <c r="P518">
-        <v>8</v>
-      </c>
-      <c r="Q518">
-        <v>0</v>
-      </c>
-      <c r="R518">
-        <v>0</v>
-      </c>
-      <c r="S518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F519">
-        <v>8</v>
-      </c>
-      <c r="G519">
-        <v>8</v>
-      </c>
-      <c r="H519">
-        <v>8</v>
-      </c>
-      <c r="I519">
-        <v>0</v>
-      </c>
-      <c r="J519">
-        <v>0</v>
-      </c>
-      <c r="K519">
-        <v>0</v>
-      </c>
-      <c r="L519">
-        <v>0</v>
-      </c>
-      <c r="M519">
-        <v>8</v>
-      </c>
-      <c r="N519">
-        <v>8</v>
-      </c>
-      <c r="O519">
-        <v>8</v>
-      </c>
-      <c r="P519">
-        <v>0</v>
-      </c>
-      <c r="Q519">
-        <v>0</v>
-      </c>
-      <c r="R519">
-        <v>0</v>
-      </c>
-      <c r="S519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F520">
-        <v>0</v>
-      </c>
-      <c r="G520">
-        <v>8</v>
-      </c>
-      <c r="H520">
-        <v>8</v>
-      </c>
-      <c r="I520">
-        <v>8</v>
-      </c>
-      <c r="J520">
-        <v>8</v>
-      </c>
-      <c r="K520">
-        <v>0</v>
-      </c>
-      <c r="L520">
-        <v>0</v>
-      </c>
-      <c r="T520">
-        <v>0</v>
-      </c>
-      <c r="U520">
-        <v>8</v>
-      </c>
-      <c r="V520">
-        <v>8</v>
-      </c>
-      <c r="W520">
-        <v>8</v>
-      </c>
-      <c r="X520">
-        <v>8</v>
-      </c>
-      <c r="Y520">
-        <v>0</v>
-      </c>
-      <c r="Z520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="G525">
-        <v>46</v>
-      </c>
-      <c r="N525">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="526" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="G526">
-        <v>328</v>
-      </c>
-      <c r="H526">
-        <v>328</v>
-      </c>
-      <c r="I526">
-        <v>328</v>
-      </c>
-      <c r="N526">
-        <v>328</v>
-      </c>
-      <c r="O526">
-        <v>328</v>
-      </c>
-      <c r="P526">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="534" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F534">
-        <v>8</v>
-      </c>
-      <c r="G534">
-        <v>8</v>
-      </c>
-      <c r="H534">
-        <v>8</v>
-      </c>
-      <c r="I534">
-        <v>0</v>
-      </c>
-      <c r="J534">
-        <v>0</v>
-      </c>
-      <c r="K534">
-        <v>0</v>
-      </c>
-      <c r="L534">
-        <v>0</v>
-      </c>
-      <c r="M534">
-        <v>8</v>
-      </c>
-      <c r="N534">
-        <v>8</v>
-      </c>
-      <c r="O534">
-        <v>8</v>
-      </c>
-      <c r="P534">
-        <v>0</v>
-      </c>
-      <c r="Q534">
-        <v>0</v>
-      </c>
-      <c r="R534">
-        <v>0</v>
-      </c>
-      <c r="S534">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F535">
-        <v>8</v>
-      </c>
-      <c r="G535">
-        <v>8</v>
-      </c>
-      <c r="H535">
-        <v>8</v>
-      </c>
-      <c r="I535">
-        <v>0</v>
-      </c>
-      <c r="J535">
-        <v>0</v>
-      </c>
-      <c r="K535">
-        <v>0</v>
-      </c>
-      <c r="L535">
-        <v>0</v>
-      </c>
-      <c r="M535">
-        <v>8</v>
-      </c>
-      <c r="N535">
-        <v>8</v>
-      </c>
-      <c r="O535">
-        <v>8</v>
-      </c>
-      <c r="P535">
-        <v>0</v>
-      </c>
-      <c r="Q535">
-        <v>0</v>
-      </c>
-      <c r="R535">
-        <v>0</v>
-      </c>
-      <c r="S535">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F536">
-        <v>0</v>
-      </c>
-      <c r="G536">
-        <v>0</v>
-      </c>
-      <c r="H536">
-        <v>8</v>
-      </c>
-      <c r="I536">
-        <v>0</v>
-      </c>
-      <c r="J536">
-        <v>0</v>
-      </c>
-      <c r="K536">
-        <v>0</v>
-      </c>
-      <c r="L536">
-        <v>0</v>
-      </c>
-      <c r="M536">
-        <v>0</v>
-      </c>
-      <c r="N536">
-        <v>0</v>
-      </c>
-      <c r="O536">
-        <v>8</v>
-      </c>
-      <c r="P536">
-        <v>0</v>
-      </c>
-      <c r="Q536">
-        <v>0</v>
-      </c>
-      <c r="R536">
-        <v>0</v>
-      </c>
-      <c r="S536">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F537">
-        <v>0</v>
-      </c>
-      <c r="G537">
-        <v>0</v>
-      </c>
-      <c r="H537">
-        <v>0</v>
-      </c>
-      <c r="I537">
-        <v>8</v>
-      </c>
-      <c r="J537">
-        <v>0</v>
-      </c>
-      <c r="K537">
-        <v>0</v>
-      </c>
-      <c r="L537">
-        <v>0</v>
-      </c>
-      <c r="M537">
-        <v>0</v>
-      </c>
-      <c r="N537">
-        <v>0</v>
-      </c>
-      <c r="O537">
-        <v>0</v>
-      </c>
-      <c r="P537">
-        <v>8</v>
-      </c>
-      <c r="Q537">
-        <v>0</v>
-      </c>
-      <c r="R537">
-        <v>0</v>
-      </c>
-      <c r="S537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F538">
-        <v>8</v>
-      </c>
-      <c r="G538">
-        <v>0</v>
-      </c>
-      <c r="H538">
-        <v>0</v>
-      </c>
-      <c r="I538">
-        <v>8</v>
-      </c>
-      <c r="J538">
-        <v>0</v>
-      </c>
-      <c r="K538">
-        <v>0</v>
-      </c>
-      <c r="L538">
-        <v>0</v>
-      </c>
-      <c r="M538">
-        <v>8</v>
-      </c>
-      <c r="N538">
-        <v>0</v>
-      </c>
-      <c r="O538">
-        <v>0</v>
-      </c>
-      <c r="P538">
-        <v>8</v>
-      </c>
-      <c r="Q538">
-        <v>0</v>
-      </c>
-      <c r="R538">
-        <v>0</v>
-      </c>
-      <c r="S538">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="6:16" x14ac:dyDescent="0.35">
-      <c r="F556">
-        <v>150</v>
-      </c>
-      <c r="G556">
-        <v>150</v>
-      </c>
-      <c r="H556">
-        <v>150</v>
-      </c>
-      <c r="M556">
-        <v>150</v>
-      </c>
-      <c r="N556">
-        <v>150</v>
-      </c>
-      <c r="O556">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="557" spans="6:16" x14ac:dyDescent="0.35">
-      <c r="F557">
-        <v>140</v>
-      </c>
-      <c r="G557">
-        <v>140</v>
-      </c>
-      <c r="H557">
-        <v>140</v>
-      </c>
-      <c r="M557">
-        <v>140</v>
-      </c>
-      <c r="N557">
-        <v>140</v>
-      </c>
-      <c r="O557">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="558" spans="6:16" x14ac:dyDescent="0.35">
-      <c r="H558">
-        <v>189</v>
-      </c>
-      <c r="O558">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="559" spans="6:16" x14ac:dyDescent="0.35">
-      <c r="I559">
-        <v>208</v>
-      </c>
-      <c r="P559">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="560" spans="6:16" x14ac:dyDescent="0.35">
-      <c r="F560">
-        <v>88</v>
-      </c>
-      <c r="M560">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="561" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="M561">
-        <v>26</v>
-      </c>
-      <c r="O561">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="562" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F562">
-        <v>100</v>
-      </c>
-      <c r="G562">
-        <v>100</v>
-      </c>
-      <c r="H562">
-        <v>100</v>
-      </c>
-      <c r="I562">
-        <v>100</v>
-      </c>
-      <c r="T562">
-        <v>100</v>
-      </c>
-      <c r="U562">
-        <v>100</v>
-      </c>
-      <c r="V562">
-        <v>100</v>
-      </c>
-      <c r="W562">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="563" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="L563" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z563" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="585" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F585">
-        <v>8</v>
-      </c>
-      <c r="G585">
-        <v>0</v>
-      </c>
-      <c r="H585">
-        <v>8</v>
-      </c>
-      <c r="I585">
-        <v>0</v>
-      </c>
-      <c r="J585">
-        <v>0</v>
-      </c>
-      <c r="K585">
-        <v>0</v>
-      </c>
-      <c r="L585">
-        <v>0</v>
-      </c>
-      <c r="M585">
-        <v>8</v>
-      </c>
-      <c r="N585">
-        <v>0</v>
-      </c>
-      <c r="O585">
-        <v>8</v>
-      </c>
-      <c r="P585">
-        <v>0</v>
-      </c>
-      <c r="Q585">
-        <v>0</v>
-      </c>
-      <c r="R585">
-        <v>0</v>
-      </c>
-      <c r="S585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F600">
-        <v>8</v>
-      </c>
-      <c r="G600">
-        <v>8</v>
-      </c>
-      <c r="H600">
-        <v>8</v>
-      </c>
-      <c r="I600">
-        <v>4</v>
-      </c>
-      <c r="J600">
-        <v>0</v>
-      </c>
-      <c r="K600">
-        <v>0</v>
-      </c>
-      <c r="L600">
-        <v>0</v>
-      </c>
-      <c r="T600">
-        <v>8</v>
-      </c>
-      <c r="U600">
-        <v>8</v>
-      </c>
-      <c r="V600">
-        <v>8</v>
-      </c>
-      <c r="W600">
-        <v>4</v>
-      </c>
-      <c r="X600">
-        <v>0</v>
-      </c>
-      <c r="Y600">
-        <v>0</v>
-      </c>
-      <c r="Z600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5110" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F5110">
-        <v>0</v>
-      </c>
-      <c r="G5110">
-        <v>8</v>
-      </c>
-      <c r="H5110">
-        <v>4</v>
-      </c>
-      <c r="I5110">
-        <v>8</v>
-      </c>
-      <c r="J5110">
-        <v>0</v>
-      </c>
-      <c r="K5110">
-        <v>0</v>
-      </c>
-      <c r="L5110">
-        <v>0</v>
-      </c>
-      <c r="M5110">
-        <v>0</v>
-      </c>
-      <c r="N5110">
-        <v>8</v>
-      </c>
-      <c r="O5110">
-        <v>4</v>
-      </c>
-      <c r="P5110">
-        <v>8</v>
-      </c>
-      <c r="Q5110">
-        <v>0</v>
-      </c>
-      <c r="R5110">
-        <v>0</v>
-      </c>
-      <c r="S5110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5120" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F5120">
-        <v>0.5</v>
-      </c>
-      <c r="G5120">
-        <v>0.5</v>
-      </c>
-      <c r="H5120">
-        <v>0.5</v>
-      </c>
-      <c r="I5120">
-        <v>0</v>
-      </c>
-      <c r="J5120">
-        <v>0</v>
-      </c>
-      <c r="K5120">
-        <v>0</v>
-      </c>
-      <c r="L5120">
-        <v>0</v>
-      </c>
-      <c r="M5120">
-        <v>0.5</v>
-      </c>
-      <c r="N5120">
-        <v>0.5</v>
-      </c>
-      <c r="O5120">
-        <v>0.5</v>
-      </c>
-      <c r="P5120">
-        <v>0</v>
-      </c>
-      <c r="Q5120">
-        <v>0</v>
-      </c>
-      <c r="R5120">
-        <v>0</v>
-      </c>
-      <c r="S5120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5121" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F5121">
-        <v>0</v>
-      </c>
-      <c r="G5121">
-        <v>0</v>
-      </c>
-      <c r="H5121">
-        <v>0</v>
-      </c>
-      <c r="I5121">
-        <v>0.5</v>
-      </c>
-      <c r="J5121">
-        <v>0</v>
-      </c>
-      <c r="K5121">
-        <v>0</v>
-      </c>
-      <c r="L5121">
-        <v>0</v>
-      </c>
-      <c r="M5121">
-        <v>0</v>
-      </c>
-      <c r="N5121">
-        <v>0</v>
-      </c>
-      <c r="O5121">
-        <v>0</v>
-      </c>
-      <c r="P5121">
-        <v>0.5</v>
-      </c>
-      <c r="Q5121">
-        <v>0</v>
-      </c>
-      <c r="R5121">
-        <v>0</v>
-      </c>
-      <c r="S5121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5139" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F5139">
-        <v>8</v>
-      </c>
-      <c r="G5139">
-        <v>8</v>
-      </c>
-      <c r="H5139">
-        <v>8</v>
-      </c>
-      <c r="I5139">
-        <v>8</v>
-      </c>
-      <c r="J5139">
-        <v>8</v>
-      </c>
-      <c r="K5139">
-        <v>0</v>
-      </c>
-      <c r="L5139">
-        <v>0</v>
-      </c>
-      <c r="M5139">
-        <v>8</v>
-      </c>
-      <c r="N5139">
-        <v>8</v>
-      </c>
-      <c r="O5139">
-        <v>8</v>
-      </c>
-      <c r="P5139">
-        <v>8</v>
-      </c>
-      <c r="Q5139">
-        <v>8</v>
-      </c>
-      <c r="R5139">
-        <v>0</v>
-      </c>
-      <c r="S5139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5140" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F5140">
-        <v>0</v>
-      </c>
-      <c r="G5140">
-        <v>0</v>
-      </c>
-      <c r="H5140">
-        <v>0</v>
-      </c>
-      <c r="I5140">
-        <v>9</v>
-      </c>
-      <c r="J5140">
-        <v>9</v>
-      </c>
-      <c r="K5140">
-        <v>0</v>
-      </c>
-      <c r="L5140">
-        <v>0</v>
-      </c>
-      <c r="M5140">
-        <v>0</v>
-      </c>
-      <c r="N5140">
-        <v>0</v>
-      </c>
-      <c r="O5140">
-        <v>0</v>
-      </c>
-      <c r="P5140">
-        <v>9</v>
-      </c>
-      <c r="Q5140">
-        <v>9</v>
-      </c>
-      <c r="R5140">
-        <v>0</v>
-      </c>
-      <c r="S5140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5141" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F5141">
-        <v>0</v>
-      </c>
-      <c r="G5141">
-        <v>0</v>
-      </c>
-      <c r="H5141">
-        <v>0</v>
-      </c>
-      <c r="I5141">
-        <v>9</v>
-      </c>
-      <c r="J5141">
-        <v>9</v>
-      </c>
-      <c r="K5141">
-        <v>0</v>
-      </c>
-      <c r="L5141">
-        <v>0</v>
-      </c>
-      <c r="M5141">
-        <v>0</v>
-      </c>
-      <c r="N5141">
-        <v>0</v>
-      </c>
-      <c r="O5141">
-        <v>0</v>
-      </c>
-      <c r="P5141">
-        <v>9</v>
-      </c>
-      <c r="Q5141">
-        <v>9</v>
-      </c>
-      <c r="R5141">
-        <v>0</v>
-      </c>
-      <c r="S5141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5142" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F5142">
-        <v>0</v>
-      </c>
-      <c r="G5142">
-        <v>0</v>
-      </c>
-      <c r="H5142">
-        <v>0</v>
-      </c>
-      <c r="I5142">
-        <v>9</v>
-      </c>
-      <c r="J5142">
-        <v>0</v>
-      </c>
-      <c r="K5142">
-        <v>0</v>
-      </c>
-      <c r="L5142">
-        <v>0</v>
-      </c>
-      <c r="M5142">
-        <v>0</v>
-      </c>
-      <c r="N5142">
-        <v>9</v>
-      </c>
-      <c r="O5142">
-        <v>0</v>
-      </c>
-      <c r="P5142">
-        <v>0</v>
-      </c>
-      <c r="Q5142">
-        <v>0</v>
-      </c>
-      <c r="R5142">
-        <v>0</v>
-      </c>
-      <c r="S5142">
-        <v>0</v>
-      </c>
-      <c r="T5142">
-        <v>0</v>
-      </c>
-      <c r="U5142">
-        <v>0</v>
-      </c>
-      <c r="V5142">
-        <v>0</v>
-      </c>
-      <c r="W5142">
-        <v>9</v>
-      </c>
-      <c r="X5142">
-        <v>0</v>
-      </c>
-      <c r="Y5142">
-        <v>0</v>
-      </c>
-      <c r="Z5142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5143" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F5143">
-        <v>0</v>
-      </c>
-      <c r="G5143">
-        <v>0</v>
-      </c>
-      <c r="H5143">
-        <v>0</v>
-      </c>
-      <c r="I5143">
-        <v>0</v>
-      </c>
-      <c r="J5143">
-        <v>9</v>
-      </c>
-      <c r="K5143">
-        <v>0</v>
-      </c>
-      <c r="L5143">
-        <v>0</v>
-      </c>
-      <c r="T5143">
-        <v>0</v>
-      </c>
-      <c r="U5143">
-        <v>0</v>
-      </c>
-      <c r="V5143">
-        <v>0</v>
-      </c>
-      <c r="W5143">
-        <v>0</v>
-      </c>
-      <c r="X5143">
-        <v>9</v>
-      </c>
-      <c r="Y5143">
-        <v>0</v>
-      </c>
-      <c r="Z5143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5144" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F5144">
-        <v>0</v>
-      </c>
-      <c r="G5144">
-        <v>0</v>
-      </c>
-      <c r="H5144">
-        <v>0</v>
-      </c>
-      <c r="I5144">
-        <v>0</v>
-      </c>
-      <c r="J5144">
-        <v>3</v>
-      </c>
-      <c r="K5144">
-        <v>0</v>
-      </c>
-      <c r="L5144">
-        <v>0</v>
-      </c>
-      <c r="M5144">
-        <v>0</v>
-      </c>
-      <c r="N5144">
-        <v>0</v>
-      </c>
-      <c r="O5144">
-        <v>0</v>
-      </c>
-      <c r="P5144">
-        <v>0</v>
-      </c>
-      <c r="Q5144">
-        <v>3</v>
-      </c>
-      <c r="R5144">
-        <v>0</v>
-      </c>
-      <c r="S5144">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="386">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="Z2:AT3"/>
+    <mergeCell ref="AA160:AB160"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="L161:O161"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="AT4:AT6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="E146:O146"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="L173:O173"/>
+    <mergeCell ref="L160:O160"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="L163:O163"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="L152:O152"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="L151:O151"/>
+    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="AA166:AB166"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="L150:O150"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="L148:O148"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="AA149:AB149"/>
+    <mergeCell ref="L149:O149"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="AA155:AB155"/>
+    <mergeCell ref="L155:O155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A172:B173"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="E2:Y3"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="L154:O154"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="M171:O171"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="A149:D149"/>
     <mergeCell ref="H165:J165"/>
     <mergeCell ref="C131:D131"/>
@@ -12436,324 +11675,54 @@
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="E158:F158"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="M171:O171"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C44:D44"/>
     <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="L154:O154"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A172:B173"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="E2:Y3"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A85:B85"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="AA149:AB149"/>
-    <mergeCell ref="L149:O149"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="AA155:AB155"/>
-    <mergeCell ref="L155:O155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="L150:O150"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="L148:O148"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="C92:D93"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H166:J166"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="L151:O151"/>
-    <mergeCell ref="H168:J168"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="H167:J167"/>
-    <mergeCell ref="H161:J161"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="AA166:AB166"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="L152:O152"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="L173:O173"/>
-    <mergeCell ref="L160:O160"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="L163:O163"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="E146:O146"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="Z2:AT3"/>
-    <mergeCell ref="AA160:AB160"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="L161:O161"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="H163:J163"/>
-    <mergeCell ref="AT4:AT6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="portrait"/>
